--- a/yeucau/file mẫu.xlsx
+++ b/yeucau/file mẫu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanhn128\Documents\GitHub\quanlydv\yeucau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF60111E-2999-49C7-B7BA-F25FF2F53B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="Bang_DSDV">[1]DSDV!$G$7:$AH$216</definedName>
     <definedName name="Dân_tộc">[1]ThietLap!$S$2:$S$55</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -986,14 +985,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1311,14 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1873,10 +1880,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="484">
+  <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2680,6 +2688,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3329,7 +3338,8 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -4325,6 +4335,7 @@
       <sheetName val="DK"/>
       <sheetName val="QTCT"/>
       <sheetName val="QTDT"/>
+      <sheetName val="Quan_ly_DV.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="qtdt_dong"/>
@@ -4800,6 +4811,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4881,23 +4893,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4933,23 +4928,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5125,11 +5103,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5142,11 +5121,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
     </row>
     <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B4" s="88" t="s">
@@ -5163,10 +5142,10 @@
       <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="280" t="s">
+      <c r="C5" s="281" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="283" t="s">
+      <c r="D5" s="284" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5174,79 +5153,82 @@
       <c r="B6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="281"/>
-      <c r="D6" s="284"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="285"/>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="281"/>
-      <c r="D7" s="284"/>
+      <c r="C7" s="282"/>
+      <c r="D7" s="285"/>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="281"/>
-      <c r="D8" s="284"/>
+      <c r="C8" s="282"/>
+      <c r="D8" s="285"/>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="282"/>
-      <c r="D9" s="285"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="286"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="286" t="s">
+      <c r="B11" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="289"/>
       <c r="E11" s="94"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="287"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="288"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="289"/>
       <c r="E12" s="94"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="287"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="288"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="289"/>
       <c r="E13" s="94"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="287"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="288"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="289"/>
       <c r="E14" s="94"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="287"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="288"/>
+      <c r="B15" s="288"/>
+      <c r="C15" s="288"/>
+      <c r="D15" s="289"/>
       <c r="E15" s="94"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="287"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="288"/>
+      <c r="B16" s="288"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="289"/>
       <c r="E16" s="94"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="287"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="288"/>
+      <c r="B17" s="288"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="289"/>
       <c r="E17" s="94"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="287"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="289"/>
       <c r="E18" s="94"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5262,11 +5244,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BX20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,22 +5259,22 @@
       <c r="A2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="290" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289" t="s">
+      <c r="C2" s="290"/>
+      <c r="D2" s="290" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289" t="s">
+      <c r="E2" s="290"/>
+      <c r="F2" s="290" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289" t="s">
+      <c r="G2" s="290"/>
+      <c r="H2" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="289"/>
+      <c r="I2" s="290"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -5320,133 +5303,133 @@
       <c r="AK2" s="31"/>
     </row>
     <row r="3" spans="1:76" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="290"/>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="290"/>
-      <c r="S3" s="290"/>
-      <c r="T3" s="290"/>
-      <c r="U3" s="290"/>
-      <c r="V3" s="290"/>
-      <c r="W3" s="290"/>
-      <c r="X3" s="290"/>
-      <c r="Y3" s="290"/>
-      <c r="Z3" s="290"/>
-      <c r="AA3" s="290"/>
-      <c r="AB3" s="290"/>
-      <c r="AC3" s="290"/>
-      <c r="AD3" s="290"/>
-      <c r="AE3" s="290"/>
-      <c r="AF3" s="290"/>
-      <c r="AG3" s="290"/>
-      <c r="AH3" s="290"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="291"/>
+      <c r="N3" s="291"/>
+      <c r="O3" s="291"/>
+      <c r="P3" s="291"/>
+      <c r="Q3" s="291"/>
+      <c r="R3" s="291"/>
+      <c r="S3" s="291"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="291"/>
+      <c r="V3" s="291"/>
+      <c r="W3" s="291"/>
+      <c r="X3" s="291"/>
+      <c r="Y3" s="291"/>
+      <c r="Z3" s="291"/>
+      <c r="AA3" s="291"/>
+      <c r="AB3" s="291"/>
+      <c r="AC3" s="291"/>
+      <c r="AD3" s="291"/>
+      <c r="AE3" s="291"/>
+      <c r="AF3" s="291"/>
+      <c r="AG3" s="291"/>
+      <c r="AH3" s="291"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="1:76" s="5" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="298" t="s">
+      <c r="A4" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="296" t="s">
+      <c r="D4" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="296" t="s">
+      <c r="E4" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="299" t="s">
+      <c r="F4" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="299" t="s">
+      <c r="G4" s="300" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="291" t="s">
+      <c r="H4" s="292" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="297" t="s">
+      <c r="I4" s="298" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="291" t="s">
+      <c r="J4" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="301" t="s">
+      <c r="K4" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="303" t="s">
+      <c r="L4" s="304" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="304"/>
-      <c r="N4" s="304"/>
-      <c r="O4" s="304"/>
-      <c r="P4" s="304"/>
-      <c r="Q4" s="304"/>
-      <c r="R4" s="305"/>
-      <c r="S4" s="306" t="s">
+      <c r="M4" s="305"/>
+      <c r="N4" s="305"/>
+      <c r="O4" s="305"/>
+      <c r="P4" s="305"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="306"/>
+      <c r="S4" s="307" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="307"/>
-      <c r="U4" s="297" t="s">
+      <c r="T4" s="308"/>
+      <c r="U4" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="297" t="s">
+      <c r="V4" s="298" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="291" t="s">
+      <c r="W4" s="292" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="291" t="s">
+      <c r="X4" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="291" t="s">
+      <c r="Y4" s="292" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="294" t="s">
+      <c r="Z4" s="295" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="291" t="s">
+      <c r="AA4" s="292" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="291" t="s">
+      <c r="AB4" s="292" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="291" t="s">
+      <c r="AC4" s="292" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="291" t="s">
+      <c r="AD4" s="292" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="291" t="s">
+      <c r="AE4" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="296" t="s">
+      <c r="AF4" s="297" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="291" t="s">
+      <c r="AG4" s="292" t="s">
         <v>37</v>
       </c>
-      <c r="AH4" s="291" t="s">
+      <c r="AH4" s="292" t="s">
         <v>38</v>
       </c>
       <c r="AI4" s="1"/>
@@ -5454,17 +5437,17 @@
       <c r="AK4" s="1"/>
     </row>
     <row r="5" spans="1:76" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="298"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="293"/>
-      <c r="K5" s="302"/>
+      <c r="A5" s="299"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="303"/>
       <c r="L5" s="6" t="s">
         <v>39</v>
       </c>
@@ -5492,20 +5475,20 @@
       <c r="T5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="298"/>
-      <c r="V5" s="298"/>
-      <c r="W5" s="293"/>
-      <c r="X5" s="293"/>
-      <c r="Y5" s="293"/>
-      <c r="Z5" s="295"/>
-      <c r="AA5" s="293"/>
-      <c r="AB5" s="293"/>
-      <c r="AC5" s="293"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="293"/>
-      <c r="AF5" s="292"/>
-      <c r="AG5" s="292"/>
-      <c r="AH5" s="292"/>
+      <c r="U5" s="299"/>
+      <c r="V5" s="299"/>
+      <c r="W5" s="294"/>
+      <c r="X5" s="294"/>
+      <c r="Y5" s="294"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="294"/>
+      <c r="AB5" s="294"/>
+      <c r="AC5" s="294"/>
+      <c r="AD5" s="293"/>
+      <c r="AE5" s="294"/>
+      <c r="AF5" s="293"/>
+      <c r="AG5" s="293"/>
+      <c r="AH5" s="293"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -6284,11 +6267,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6342,7 +6326,7 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="320" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="74"/>
@@ -6363,18 +6347,18 @@
       <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="320"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="331"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="325" t="s">
+      <c r="C4" s="332"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="326" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="334"/>
+      <c r="F4" s="327"/>
+      <c r="G4" s="334"/>
+      <c r="H4" s="335"/>
       <c r="I4" s="38"/>
       <c r="J4" s="34"/>
       <c r="K4" s="35"/>
@@ -6386,7 +6370,7 @@
       <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="321"/>
+      <c r="A5" s="322"/>
       <c r="B5" s="76"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -6405,18 +6389,18 @@
       <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="320"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="325" t="s">
+      <c r="C6" s="332"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="326" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="326"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="334"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="335"/>
       <c r="I6" s="38"/>
       <c r="J6" s="34"/>
       <c r="K6" s="35"/>
@@ -6428,7 +6412,7 @@
       <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="320"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="76"/>
       <c r="C7" s="39"/>
       <c r="D7" s="40"/>
@@ -6447,16 +6431,16 @@
       <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="320"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="75" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="41"/>
-      <c r="D8" s="335"/>
-      <c r="E8" s="335"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="333"/>
-      <c r="H8" s="334"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="336"/>
+      <c r="G8" s="334"/>
+      <c r="H8" s="335"/>
       <c r="I8" s="38"/>
       <c r="J8" s="34"/>
       <c r="K8" s="35"/>
@@ -6468,7 +6452,7 @@
       <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="322"/>
+      <c r="A9" s="323"/>
       <c r="B9" s="77"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
@@ -6487,7 +6471,7 @@
       <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="327" t="s">
+      <c r="A10" s="328" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="78"/>
@@ -6508,17 +6492,17 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="328"/>
+      <c r="A11" s="329"/>
       <c r="B11" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="330"/>
-      <c r="D11" s="330"/>
+      <c r="C11" s="331"/>
+      <c r="D11" s="331"/>
       <c r="E11" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="330"/>
-      <c r="G11" s="330"/>
+      <c r="F11" s="331"/>
+      <c r="G11" s="331"/>
       <c r="H11" s="46"/>
       <c r="I11" s="47"/>
       <c r="J11" s="34"/>
@@ -6531,7 +6515,7 @@
       <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="328"/>
+      <c r="A12" s="329"/>
       <c r="B12" s="80"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
@@ -6550,7 +6534,7 @@
       <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="328"/>
+      <c r="A13" s="329"/>
       <c r="B13" s="79" t="s">
         <v>19</v>
       </c>
@@ -6575,7 +6559,7 @@
       <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="328"/>
+      <c r="A14" s="329"/>
       <c r="B14" s="80"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
@@ -6594,7 +6578,7 @@
       <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="328"/>
+      <c r="A15" s="329"/>
       <c r="B15" s="79" t="s">
         <v>29</v>
       </c>
@@ -6606,8 +6590,8 @@
       <c r="F15" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="330"/>
-      <c r="H15" s="330"/>
+      <c r="G15" s="331"/>
+      <c r="H15" s="331"/>
       <c r="I15" s="47"/>
       <c r="J15" s="34"/>
       <c r="K15" s="35"/>
@@ -6619,7 +6603,7 @@
       <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="328"/>
+      <c r="A16" s="329"/>
       <c r="B16" s="80"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
@@ -6638,16 +6622,16 @@
       <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="328"/>
+      <c r="A17" s="329"/>
       <c r="B17" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="310"/>
-      <c r="D17" s="311"/>
-      <c r="E17" s="311"/>
-      <c r="F17" s="311"/>
-      <c r="G17" s="311"/>
-      <c r="H17" s="312"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="312"/>
+      <c r="E17" s="312"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="312"/>
+      <c r="H17" s="313"/>
       <c r="I17" s="47"/>
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
@@ -6659,7 +6643,7 @@
       <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="328"/>
+      <c r="A18" s="329"/>
       <c r="B18" s="80"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -6678,16 +6662,16 @@
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="328"/>
+      <c r="A19" s="329"/>
       <c r="B19" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="310"/>
-      <c r="D19" s="311"/>
-      <c r="E19" s="311"/>
-      <c r="F19" s="311"/>
-      <c r="G19" s="311"/>
-      <c r="H19" s="312"/>
+      <c r="C19" s="311"/>
+      <c r="D19" s="312"/>
+      <c r="E19" s="312"/>
+      <c r="F19" s="312"/>
+      <c r="G19" s="312"/>
+      <c r="H19" s="313"/>
       <c r="I19" s="47"/>
       <c r="J19" s="34"/>
       <c r="K19" s="35"/>
@@ -6699,7 +6683,7 @@
       <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="329"/>
+      <c r="A20" s="330"/>
       <c r="B20" s="81"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -6737,7 +6721,7 @@
       <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="83" t="s">
         <v>66</v>
       </c>
@@ -6749,8 +6733,8 @@
       <c r="F22" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="315"/>
-      <c r="H22" s="316"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="317"/>
       <c r="I22" s="61"/>
       <c r="J22" s="34"/>
       <c r="K22" s="35"/>
@@ -6762,7 +6746,7 @@
       <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="84"/>
       <c r="C23" s="62"/>
       <c r="D23" s="59"/>
@@ -6781,7 +6765,7 @@
       <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="83" t="s">
         <v>69</v>
       </c>
@@ -6789,10 +6773,10 @@
       <c r="D24" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="310"/>
-      <c r="F24" s="311"/>
-      <c r="G24" s="311"/>
-      <c r="H24" s="312"/>
+      <c r="E24" s="311"/>
+      <c r="F24" s="312"/>
+      <c r="G24" s="312"/>
+      <c r="H24" s="313"/>
       <c r="I24" s="61"/>
       <c r="J24" s="34"/>
       <c r="K24" s="35"/>
@@ -6804,7 +6788,7 @@
       <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="84"/>
       <c r="C25" s="62"/>
       <c r="D25" s="59"/>
@@ -6823,7 +6807,7 @@
       <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="83" t="s">
         <v>71</v>
       </c>
@@ -6831,10 +6815,10 @@
       <c r="D26" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="310"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="311"/>
-      <c r="H26" s="312"/>
+      <c r="E26" s="311"/>
+      <c r="F26" s="312"/>
+      <c r="G26" s="312"/>
+      <c r="H26" s="313"/>
       <c r="I26" s="61"/>
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
@@ -6846,7 +6830,7 @@
       <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="84"/>
       <c r="C27" s="62"/>
       <c r="D27" s="59"/>
@@ -6865,7 +6849,7 @@
       <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="313"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="83" t="s">
         <v>72</v>
       </c>
@@ -6877,8 +6861,8 @@
       <c r="F28" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="317"/>
-      <c r="H28" s="318"/>
+      <c r="G28" s="318"/>
+      <c r="H28" s="319"/>
       <c r="I28" s="61"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
@@ -6890,7 +6874,7 @@
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="314"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="85"/>
       <c r="C29" s="64"/>
       <c r="D29" s="63"/>
@@ -6909,7 +6893,7 @@
       <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="319" t="s">
+      <c r="A30" s="320" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="74"/>
@@ -6930,17 +6914,17 @@
       <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="320"/>
+      <c r="A31" s="321"/>
       <c r="B31" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="308"/>
-      <c r="D31" s="309"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="310"/>
       <c r="E31" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="323"/>
-      <c r="G31" s="324"/>
+      <c r="F31" s="324"/>
+      <c r="G31" s="325"/>
       <c r="H31" s="67"/>
       <c r="I31" s="38"/>
       <c r="J31" s="34"/>
@@ -6953,7 +6937,7 @@
       <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="321"/>
+      <c r="A32" s="322"/>
       <c r="B32" s="76"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
@@ -6972,18 +6956,18 @@
       <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="320"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="308"/>
-      <c r="D33" s="309"/>
-      <c r="E33" s="325" t="s">
+      <c r="C33" s="309"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="326" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="326"/>
-      <c r="G33" s="308"/>
-      <c r="H33" s="309"/>
+      <c r="F33" s="327"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="310"/>
       <c r="I33" s="38"/>
       <c r="J33" s="34"/>
       <c r="K33" s="35"/>
@@ -6995,7 +6979,7 @@
       <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="320"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="76"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -7014,16 +6998,16 @@
       <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:17" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="320"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="310"/>
-      <c r="D35" s="311"/>
-      <c r="E35" s="311"/>
-      <c r="F35" s="311"/>
-      <c r="G35" s="311"/>
-      <c r="H35" s="312"/>
+      <c r="C35" s="311"/>
+      <c r="D35" s="312"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="312"/>
+      <c r="H35" s="313"/>
       <c r="I35" s="38"/>
       <c r="J35" s="34"/>
       <c r="K35" s="35"/>
@@ -7035,7 +7019,7 @@
       <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="322"/>
+      <c r="A36" s="323"/>
       <c r="B36" s="77"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
@@ -7103,14 +7087,14 @@
     <mergeCell ref="E33:F33"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" sqref="F31:G31 G6:H6 G8:H8" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng ngày tháng" sqref="G13" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" sqref="F31:G31 G6:H6 G8:H8"/>
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng ngày tháng" sqref="G13">
       <formula1>Dân_tộc</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" sqref="G4" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" sqref="G4">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng ngày tháng" sqref="C24 E13 C26 C28 E28 G28" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng ngày tháng" sqref="C24 E13 C26 C28 E28 G28">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -7120,19 +7104,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số">
           <x14:formula1>
             <xm:f>'G:\DOC\[Quan_ly_DV.xlsm.xlsm]ThietLap'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G22:H22 E22 G33:H33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'G:\DOC\[Quan_ly_DV.xlsm.xlsm]ThietLap'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H31 C13 C15 E15 C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số">
           <x14:formula1>
             <xm:f>OFFSET('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!,0,0,COUNTA('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!))</xm:f>
           </x14:formula1>
@@ -7145,11 +7129,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7182,18 +7167,18 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="337" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
       <c r="K3" s="34"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -7244,21 +7229,21 @@
       <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="337" t="s">
+      <c r="A6" s="338" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="339" t="s">
+      <c r="B6" s="340" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="308"/>
-      <c r="E6" s="309"/>
-      <c r="F6" s="341" t="s">
+      <c r="C6" s="341"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="310"/>
+      <c r="F6" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="342"/>
-      <c r="H6" s="308"/>
-      <c r="I6" s="309"/>
+      <c r="G6" s="343"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="310"/>
       <c r="J6" s="61"/>
       <c r="K6" s="34"/>
       <c r="L6" s="35"/>
@@ -7270,7 +7255,7 @@
       <c r="R6" s="35"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="337"/>
+      <c r="A7" s="338"/>
       <c r="B7" s="98"/>
       <c r="C7" s="99"/>
       <c r="D7" s="100"/>
@@ -7290,11 +7275,11 @@
       <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="337"/>
-      <c r="B8" s="343" t="s">
+      <c r="A8" s="338"/>
+      <c r="B8" s="344" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="344"/>
+      <c r="C8" s="345"/>
       <c r="D8" s="102"/>
       <c r="E8" s="101" t="s">
         <v>87</v>
@@ -7314,7 +7299,7 @@
       <c r="R8" s="35"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="337"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="98"/>
       <c r="C9" s="99"/>
       <c r="D9" s="100"/>
@@ -7334,17 +7319,17 @@
       <c r="R9" s="35"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="337"/>
-      <c r="B10" s="345" t="s">
+      <c r="A10" s="338"/>
+      <c r="B10" s="346" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="346"/>
-      <c r="D10" s="347"/>
-      <c r="E10" s="348"/>
-      <c r="F10" s="348"/>
-      <c r="G10" s="348"/>
-      <c r="H10" s="348"/>
-      <c r="I10" s="349"/>
+      <c r="C10" s="347"/>
+      <c r="D10" s="348"/>
+      <c r="E10" s="349"/>
+      <c r="F10" s="349"/>
+      <c r="G10" s="349"/>
+      <c r="H10" s="349"/>
+      <c r="I10" s="350"/>
       <c r="J10" s="61"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35"/>
@@ -7356,15 +7341,15 @@
       <c r="R10" s="35"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="337"/>
-      <c r="B11" s="345"/>
-      <c r="C11" s="346"/>
-      <c r="D11" s="350"/>
-      <c r="E11" s="351"/>
-      <c r="F11" s="351"/>
-      <c r="G11" s="351"/>
-      <c r="H11" s="351"/>
-      <c r="I11" s="352"/>
+      <c r="A11" s="338"/>
+      <c r="B11" s="346"/>
+      <c r="C11" s="347"/>
+      <c r="D11" s="351"/>
+      <c r="E11" s="352"/>
+      <c r="F11" s="352"/>
+      <c r="G11" s="352"/>
+      <c r="H11" s="352"/>
+      <c r="I11" s="353"/>
       <c r="J11" s="61"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35"/>
@@ -7376,15 +7361,15 @@
       <c r="R11" s="35"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="337"/>
-      <c r="B12" s="345"/>
-      <c r="C12" s="346"/>
-      <c r="D12" s="353"/>
-      <c r="E12" s="354"/>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="355"/>
+      <c r="A12" s="338"/>
+      <c r="B12" s="346"/>
+      <c r="C12" s="347"/>
+      <c r="D12" s="354"/>
+      <c r="E12" s="355"/>
+      <c r="F12" s="355"/>
+      <c r="G12" s="355"/>
+      <c r="H12" s="355"/>
+      <c r="I12" s="356"/>
       <c r="J12" s="61"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35"/>
@@ -7396,7 +7381,7 @@
       <c r="R12" s="35"/>
     </row>
     <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="337"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="98"/>
       <c r="C13" s="99"/>
       <c r="D13" s="100"/>
@@ -7416,13 +7401,13 @@
       <c r="R13" s="35"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="337"/>
-      <c r="B14" s="343" t="s">
+      <c r="A14" s="338"/>
+      <c r="B14" s="344" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="344"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="309"/>
+      <c r="C14" s="345"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="310"/>
       <c r="F14" s="104"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
@@ -7438,7 +7423,7 @@
       <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="338"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="105"/>
       <c r="C15" s="63"/>
       <c r="D15" s="64"/>
@@ -7532,8 +7517,8 @@
     <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" sqref="F6" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng ngày tháng" sqref="D8 D10" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" sqref="F6"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng ngày tháng" sqref="D8 D10"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7541,7 +7526,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số">
           <x14:formula1>
             <xm:f>OFFSET('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!,0,0,COUNTA('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!))</xm:f>
           </x14:formula1>
@@ -7554,11 +7539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,37 +7580,37 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="359" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
-      <c r="H3" s="359"/>
-      <c r="I3" s="359"/>
-      <c r="J3" s="359"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="360"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="361"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="361"/>
-      <c r="B4" s="362"/>
-      <c r="C4" s="362"/>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362"/>
-      <c r="L4" s="363"/>
+      <c r="A4" s="362"/>
+      <c r="B4" s="363"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="363"/>
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="364"/>
     </row>
     <row r="5" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="364" t="s">
+      <c r="A5" s="365" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="107"/>
@@ -7640,25 +7626,25 @@
       <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="364"/>
+      <c r="A6" s="365"/>
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
       <c r="D6" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="367" t="s">
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="367"/>
+      <c r="H6" s="368" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="368"/>
-      <c r="J6" s="368"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="309"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="310"/>
     </row>
     <row r="7" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="364"/>
+      <c r="A7" s="365"/>
       <c r="B7" s="115"/>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -7672,7 +7658,7 @@
       <c r="L7" s="109"/>
     </row>
     <row r="8" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="364"/>
+      <c r="A8" s="365"/>
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
       <c r="D8" s="117" t="s">
@@ -7690,7 +7676,7 @@
       <c r="L8" s="109"/>
     </row>
     <row r="9" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="364"/>
+      <c r="A9" s="365"/>
       <c r="B9" s="115"/>
       <c r="C9" s="116"/>
       <c r="D9" s="116"/>
@@ -7704,23 +7690,23 @@
       <c r="L9" s="109"/>
     </row>
     <row r="10" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="364"/>
+      <c r="A10" s="365"/>
       <c r="B10" s="115"/>
       <c r="C10" s="116"/>
       <c r="D10" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="369"/>
-      <c r="F10" s="370"/>
-      <c r="G10" s="370"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="370"/>
-      <c r="J10" s="370"/>
-      <c r="K10" s="371"/>
+      <c r="E10" s="370"/>
+      <c r="F10" s="371"/>
+      <c r="G10" s="371"/>
+      <c r="H10" s="371"/>
+      <c r="I10" s="371"/>
+      <c r="J10" s="371"/>
+      <c r="K10" s="372"/>
       <c r="L10" s="109"/>
     </row>
     <row r="11" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="364"/>
+      <c r="A11" s="365"/>
       <c r="B11" s="115"/>
       <c r="C11" s="116"/>
       <c r="D11" s="117"/>
@@ -7732,33 +7718,32 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="109"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="357"/>
-      <c r="P11" s="357"/>
-      <c r="Q11" s="357"/>
-      <c r="R11" s="357"/>
-      <c r="S11" s="357"/>
-      <c r="T11" s="357"/>
-      <c r="U11" s="357"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
     </row>
     <row r="12" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="364"/>
+      <c r="A12" s="365"/>
       <c r="B12" s="116"/>
       <c r="C12" s="116"/>
       <c r="D12" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="369"/>
-      <c r="F12" s="370"/>
-      <c r="G12" s="370"/>
-      <c r="H12" s="370"/>
-      <c r="I12" s="370"/>
-      <c r="J12" s="370"/>
-      <c r="K12" s="371"/>
+      <c r="E12" s="370"/>
+      <c r="F12" s="371"/>
+      <c r="G12" s="371"/>
+      <c r="H12" s="371"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="371"/>
+      <c r="K12" s="372"/>
       <c r="L12" s="109"/>
     </row>
     <row r="13" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="364"/>
+      <c r="A13" s="365"/>
       <c r="B13" s="116"/>
       <c r="C13" s="116"/>
       <c r="D13" s="117"/>
@@ -7772,23 +7757,23 @@
       <c r="L13" s="109"/>
     </row>
     <row r="14" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="364"/>
+      <c r="A14" s="365"/>
       <c r="B14" s="116"/>
       <c r="C14" s="116"/>
       <c r="D14" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="308"/>
-      <c r="F14" s="372"/>
-      <c r="G14" s="372"/>
-      <c r="H14" s="372"/>
-      <c r="I14" s="372"/>
-      <c r="J14" s="372"/>
-      <c r="K14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="373"/>
+      <c r="G14" s="373"/>
+      <c r="H14" s="373"/>
+      <c r="I14" s="373"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="310"/>
       <c r="L14" s="109"/>
     </row>
     <row r="15" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="364"/>
+      <c r="A15" s="365"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="117"/>
@@ -7802,23 +7787,23 @@
       <c r="L15" s="109"/>
     </row>
     <row r="16" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="364"/>
+      <c r="A16" s="365"/>
       <c r="B16" s="116"/>
       <c r="C16" s="116"/>
       <c r="D16" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="308"/>
-      <c r="F16" s="372"/>
-      <c r="G16" s="372"/>
-      <c r="H16" s="372"/>
-      <c r="I16" s="372"/>
-      <c r="J16" s="372"/>
-      <c r="K16" s="309"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="373"/>
+      <c r="G16" s="373"/>
+      <c r="H16" s="373"/>
+      <c r="I16" s="373"/>
+      <c r="J16" s="373"/>
+      <c r="K16" s="310"/>
       <c r="L16" s="109"/>
     </row>
     <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="364"/>
+      <c r="A17" s="365"/>
       <c r="B17" s="116"/>
       <c r="C17" s="116"/>
       <c r="D17" s="117"/>
@@ -7832,23 +7817,23 @@
       <c r="L17" s="109"/>
     </row>
     <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="364"/>
+      <c r="A18" s="365"/>
       <c r="B18" s="116"/>
       <c r="C18" s="116"/>
       <c r="D18" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="308"/>
-      <c r="F18" s="372"/>
-      <c r="G18" s="372"/>
-      <c r="H18" s="372"/>
-      <c r="I18" s="372"/>
-      <c r="J18" s="372"/>
-      <c r="K18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="373"/>
+      <c r="G18" s="373"/>
+      <c r="H18" s="373"/>
+      <c r="I18" s="373"/>
+      <c r="J18" s="373"/>
+      <c r="K18" s="310"/>
       <c r="L18" s="109"/>
     </row>
     <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="365"/>
+      <c r="A19" s="366"/>
       <c r="B19" s="118"/>
       <c r="C19" s="118"/>
       <c r="D19" s="118"/>
@@ -7941,8 +7926,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="N11:U11"/>
+  <mergeCells count="10">
     <mergeCell ref="A3:L4"/>
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="E6:G6"/>
@@ -7955,10 +7939,10 @@
     <mergeCell ref="K6:L6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ngay thang khong hop le" error="Xin nhap ngay thang hop le" sqref="G8" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ngay thang khong hop le" error="Xin nhap ngay thang hop le" sqref="G8">
       <formula1>AND(G8&lt;=TODAY(), G8 &gt;= E8)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ngay thang khong hop le" error="Xin nhap ngay thang hop le" sqref="E8" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ngay thang khong hop le" error="Xin nhap ngay thang hop le" sqref="E8">
       <formula1>AND(E8&lt;=TODAY(), E8&lt;=G8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7968,11 +7952,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" xr:uid="{00000000-0002-0000-0400-000002000000}">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số">
           <x14:formula1>
             <xm:f>OFFSET('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!,0,0,COUNTA('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!))</xm:f>
           </x14:formula1>
-          <xm:sqref>K6 N11 E18 E14 E16</xm:sqref>
+          <xm:sqref>K6 E16 E18 E14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7981,11 +7965,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8021,39 +8006,39 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="359" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
-      <c r="H3" s="359"/>
-      <c r="I3" s="359"/>
-      <c r="J3" s="359"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="359"/>
-      <c r="M3" s="360"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="360"/>
+      <c r="M3" s="361"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="361"/>
-      <c r="B4" s="362"/>
-      <c r="C4" s="362"/>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362"/>
-      <c r="L4" s="362"/>
-      <c r="M4" s="363"/>
+      <c r="A4" s="362"/>
+      <c r="B4" s="363"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="363"/>
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="364"/>
     </row>
     <row r="5" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="364" t="s">
+      <c r="A5" s="365" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="107"/>
@@ -8070,26 +8055,26 @@
       <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="364"/>
+      <c r="A6" s="365"/>
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
       <c r="D6" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="367" t="s">
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="368" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="368"/>
-      <c r="J6" s="368"/>
-      <c r="K6" s="378"/>
-      <c r="L6" s="378"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="379"/>
       <c r="M6" s="109"/>
     </row>
     <row r="7" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="364"/>
+      <c r="A7" s="365"/>
       <c r="B7" s="115"/>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -8104,7 +8089,7 @@
       <c r="M7" s="109"/>
     </row>
     <row r="8" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="364"/>
+      <c r="A8" s="365"/>
       <c r="B8" s="117"/>
       <c r="C8" s="117" t="s">
         <v>102</v>
@@ -8114,9 +8099,9 @@
       <c r="F8" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="373"/>
-      <c r="H8" s="373"/>
-      <c r="I8" s="373"/>
+      <c r="G8" s="374"/>
+      <c r="H8" s="374"/>
+      <c r="I8" s="374"/>
       <c r="J8" s="108"/>
       <c r="K8" s="117" t="s">
         <v>103</v>
@@ -8125,7 +8110,7 @@
       <c r="M8" s="109"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="364"/>
+      <c r="A9" s="365"/>
       <c r="B9" s="115"/>
       <c r="C9" s="116"/>
       <c r="D9" s="116"/>
@@ -8140,27 +8125,27 @@
       <c r="M9" s="109"/>
     </row>
     <row r="10" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="364"/>
-      <c r="B10" s="374" t="s">
+      <c r="A10" s="365"/>
+      <c r="B10" s="375" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="375"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="379"/>
-      <c r="F10" s="379"/>
-      <c r="G10" s="379"/>
-      <c r="H10" s="379"/>
-      <c r="I10" s="379"/>
-      <c r="J10" s="379"/>
-      <c r="K10" s="379"/>
-      <c r="L10" s="379"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="376"/>
+      <c r="E10" s="380"/>
+      <c r="F10" s="380"/>
+      <c r="G10" s="380"/>
+      <c r="H10" s="380"/>
+      <c r="I10" s="380"/>
+      <c r="J10" s="380"/>
+      <c r="K10" s="380"/>
+      <c r="L10" s="380"/>
       <c r="M10" s="109"/>
     </row>
     <row r="11" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="365"/>
-      <c r="B11" s="376"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
+      <c r="A11" s="366"/>
+      <c r="B11" s="377"/>
+      <c r="C11" s="378"/>
+      <c r="D11" s="378"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
@@ -8170,14 +8155,14 @@
       <c r="K11" s="121"/>
       <c r="L11" s="121"/>
       <c r="M11" s="114"/>
-      <c r="O11" s="356"/>
-      <c r="P11" s="357"/>
-      <c r="Q11" s="357"/>
-      <c r="R11" s="357"/>
-      <c r="S11" s="357"/>
-      <c r="T11" s="357"/>
-      <c r="U11" s="357"/>
-      <c r="V11" s="357"/>
+      <c r="O11" s="357"/>
+      <c r="P11" s="358"/>
+      <c r="Q11" s="358"/>
+      <c r="R11" s="358"/>
+      <c r="S11" s="358"/>
+      <c r="T11" s="358"/>
+      <c r="U11" s="358"/>
+      <c r="V11" s="358"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D14" s="148" t="s">
@@ -8257,7 +8242,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số">
           <x14:formula1>
             <xm:f>OFFSET('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!,0,0,COUNTA('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!))</xm:f>
           </x14:formula1>
@@ -8270,10 +8255,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -8314,37 +8300,37 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="381" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="382"/>
+      <c r="B3" s="382"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="382"/>
+      <c r="E3" s="382"/>
+      <c r="F3" s="382"/>
+      <c r="G3" s="382"/>
+      <c r="H3" s="382"/>
+      <c r="I3" s="382"/>
+      <c r="J3" s="382"/>
+      <c r="K3" s="382"/>
+      <c r="L3" s="383"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="383"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384"/>
-      <c r="G4" s="384"/>
-      <c r="H4" s="384"/>
-      <c r="I4" s="384"/>
-      <c r="J4" s="384"/>
-      <c r="K4" s="384"/>
-      <c r="L4" s="385"/>
+      <c r="A4" s="384"/>
+      <c r="B4" s="385"/>
+      <c r="C4" s="385"/>
+      <c r="D4" s="385"/>
+      <c r="E4" s="385"/>
+      <c r="F4" s="385"/>
+      <c r="G4" s="385"/>
+      <c r="H4" s="385"/>
+      <c r="I4" s="385"/>
+      <c r="J4" s="385"/>
+      <c r="K4" s="385"/>
+      <c r="L4" s="386"/>
     </row>
     <row r="5" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="364" t="s">
+      <c r="A5" s="365" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="107"/>
@@ -8360,25 +8346,25 @@
       <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="364"/>
+      <c r="A6" s="365"/>
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
       <c r="D6" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="367" t="s">
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="367"/>
+      <c r="H6" s="368" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="368"/>
-      <c r="J6" s="368"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="309"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="310"/>
     </row>
     <row r="7" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="364"/>
+      <c r="A7" s="365"/>
       <c r="B7" s="115"/>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -8392,7 +8378,7 @@
       <c r="L7" s="109"/>
     </row>
     <row r="8" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="364"/>
+      <c r="A8" s="365"/>
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
       <c r="D8" s="117" t="s">
@@ -8422,7 +8408,7 @@
       <c r="L9" s="136"/>
     </row>
     <row r="10" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="387" t="s">
+      <c r="A10" s="388" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="137"/>
@@ -8450,7 +8436,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="123"/>
       <c r="C11" s="124"/>
       <c r="D11" s="127" t="s">
@@ -8461,8 +8447,8 @@
       <c r="G11" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="386"/>
-      <c r="I11" s="386"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="387"/>
       <c r="J11" s="125"/>
       <c r="K11" s="125"/>
       <c r="L11" s="126"/>
@@ -8480,7 +8466,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="123"/>
       <c r="C12" s="124"/>
       <c r="D12" s="124"/>
@@ -8506,7 +8492,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
       <c r="D13" s="128" t="s">
@@ -8517,8 +8503,8 @@
       <c r="G13" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="386"/>
-      <c r="I13" s="386"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="387"/>
       <c r="J13" s="125"/>
       <c r="K13" s="125"/>
       <c r="L13" s="126"/>
@@ -8536,7 +8522,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="390"/>
       <c r="B14" s="143"/>
       <c r="C14" s="144"/>
       <c r="D14" s="144"/>
@@ -8562,7 +8548,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="390" t="s">
+      <c r="A15" s="391" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="151"/>
@@ -8578,7 +8564,7 @@
       <c r="L15" s="147"/>
     </row>
     <row r="16" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="391"/>
+      <c r="A16" s="392"/>
       <c r="B16" s="115"/>
       <c r="C16" s="116"/>
       <c r="D16" s="117" t="s">
@@ -8589,8 +8575,8 @@
       <c r="G16" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="386"/>
-      <c r="I16" s="386"/>
+      <c r="H16" s="387"/>
+      <c r="I16" s="387"/>
       <c r="J16" s="108"/>
       <c r="K16" s="108"/>
       <c r="L16" s="109"/>
@@ -8598,7 +8584,7 @@
       <c r="O16" s="148"/>
     </row>
     <row r="17" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="391"/>
+      <c r="A17" s="392"/>
       <c r="B17" s="115"/>
       <c r="C17" s="116"/>
       <c r="D17" s="117"/>
@@ -8618,7 +8604,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="392"/>
+      <c r="A18" s="393"/>
       <c r="B18" s="156"/>
       <c r="C18" s="118"/>
       <c r="D18" s="157"/>
@@ -8675,7 +8661,7 @@
     <mergeCell ref="A15:A18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ngay thang khong hop le" error="Xin nhap ngay thang hop le" sqref="E8" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ngay thang khong hop le" error="Xin nhap ngay thang hop le" sqref="E8">
       <formula1>AND(E8&lt;=TODAY(), E8&lt;=G8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8685,7 +8671,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi nhập dữ liệu" error="Chỉ được nhập dữ liệu dạng số">
           <x14:formula1>
             <xm:f>OFFSET('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!,0,0,COUNTA('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!))</xm:f>
           </x14:formula1>
@@ -8698,11 +8684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:U1527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9166,34 +9153,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="394" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
+      <c r="K1" s="394"/>
+      <c r="L1" s="394"/>
+      <c r="M1" s="394"/>
+      <c r="N1" s="394"/>
+      <c r="O1" s="394"/>
+      <c r="P1" s="394"/>
+      <c r="Q1" s="394"/>
+      <c r="R1" s="394"/>
     </row>
     <row r="2" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="159"/>
-      <c r="B2" s="394" t="s">
+      <c r="B2" s="395" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
       <c r="E2" s="160"/>
       <c r="F2" s="160"/>
       <c r="G2" s="160"/>
@@ -9214,8 +9201,8 @@
       <c r="B3" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
       <c r="F3" s="165" t="s">
         <v>131</v>
       </c>
@@ -9240,11 +9227,11 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="159"/>
-      <c r="B4" s="395" t="s">
+      <c r="B4" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="395"/>
-      <c r="D4" s="395"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
       <c r="F4" s="158"/>
       <c r="G4" s="158"/>
       <c r="I4" s="158"/>
@@ -9263,12 +9250,12 @@
       <c r="B5" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="394"/>
-      <c r="D5" s="394"/>
-      <c r="F5" s="396" t="s">
+      <c r="C5" s="395"/>
+      <c r="D5" s="395"/>
+      <c r="F5" s="397" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="396"/>
+      <c r="G5" s="397"/>
       <c r="I5" s="167"/>
       <c r="J5" s="167"/>
       <c r="K5" s="166"/>
@@ -9287,11 +9274,11 @@
       <c r="A6" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="395" t="s">
+      <c r="B6" s="396" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="395"/>
-      <c r="D6" s="395"/>
+      <c r="C6" s="396"/>
+      <c r="D6" s="396"/>
       <c r="E6" s="160"/>
       <c r="F6" s="160"/>
       <c r="G6" s="160"/>
@@ -9309,11 +9296,11 @@
     </row>
     <row r="7" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="159"/>
-      <c r="B7" s="395" t="s">
+      <c r="B7" s="396" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="395"/>
-      <c r="D7" s="395"/>
+      <c r="C7" s="396"/>
+      <c r="D7" s="396"/>
       <c r="E7" s="160"/>
       <c r="F7" s="160"/>
       <c r="G7" s="160"/>
@@ -9338,11 +9325,11 @@
     </row>
     <row r="8" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="159"/>
-      <c r="B8" s="395" t="s">
+      <c r="B8" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="395"/>
-      <c r="D8" s="395"/>
+      <c r="C8" s="396"/>
+      <c r="D8" s="396"/>
       <c r="E8" s="160"/>
       <c r="F8" s="160"/>
       <c r="G8" s="160"/>
@@ -9367,11 +9354,11 @@
     </row>
     <row r="9" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="159"/>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="396" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="395"/>
-      <c r="D9" s="395"/>
+      <c r="C9" s="396"/>
+      <c r="D9" s="396"/>
       <c r="E9" s="160"/>
       <c r="F9" s="160"/>
       <c r="G9" s="160"/>
@@ -9412,43 +9399,43 @@
       <c r="R10" s="162"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="400" t="s">
+      <c r="B11" s="401" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="400"/>
-      <c r="D11" s="400"/>
-      <c r="E11" s="400"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="400"/>
-      <c r="H11" s="400"/>
-      <c r="I11" s="400"/>
-      <c r="J11" s="400"/>
-      <c r="K11" s="400"/>
-      <c r="L11" s="400"/>
-      <c r="M11" s="400"/>
-      <c r="N11" s="400"/>
-      <c r="O11" s="400"/>
-      <c r="P11" s="400"/>
-      <c r="Q11" s="400"/>
+      <c r="C11" s="401"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="401"/>
+      <c r="G11" s="401"/>
+      <c r="H11" s="401"/>
+      <c r="I11" s="401"/>
+      <c r="J11" s="401"/>
+      <c r="K11" s="401"/>
+      <c r="L11" s="401"/>
+      <c r="M11" s="401"/>
+      <c r="N11" s="401"/>
+      <c r="O11" s="401"/>
+      <c r="P11" s="401"/>
+      <c r="Q11" s="401"/>
       <c r="R11" s="172"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="400"/>
-      <c r="C12" s="400"/>
-      <c r="D12" s="400"/>
-      <c r="E12" s="400"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="400"/>
-      <c r="H12" s="400"/>
-      <c r="I12" s="400"/>
-      <c r="J12" s="400"/>
-      <c r="K12" s="400"/>
-      <c r="L12" s="400"/>
-      <c r="M12" s="400"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="400"/>
-      <c r="P12" s="400"/>
-      <c r="Q12" s="400"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="401"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="401"/>
+      <c r="G12" s="401"/>
+      <c r="H12" s="401"/>
+      <c r="I12" s="401"/>
+      <c r="J12" s="401"/>
+      <c r="K12" s="401"/>
+      <c r="L12" s="401"/>
+      <c r="M12" s="401"/>
+      <c r="N12" s="401"/>
+      <c r="O12" s="401"/>
+      <c r="P12" s="401"/>
+      <c r="Q12" s="401"/>
       <c r="R12" s="172"/>
     </row>
     <row r="14" spans="1:21" s="176" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9459,10 +9446,10 @@
       <c r="D14" s="177"/>
       <c r="E14" s="177"/>
       <c r="F14" s="177"/>
-      <c r="G14" s="397" t="s">
+      <c r="G14" s="398" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="397"/>
+      <c r="H14" s="398"/>
       <c r="I14" s="178" t="str">
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,2,0))</f>
         <v/>
@@ -9480,26 +9467,26 @@
     </row>
     <row r="15" spans="1:21" s="176" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="175"/>
-      <c r="B15" s="401" t="s">
+      <c r="B15" s="402" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="401"/>
+      <c r="C15" s="402"/>
       <c r="D15" s="177"/>
       <c r="E15" s="177"/>
       <c r="F15" s="177"/>
-      <c r="G15" s="397" t="s">
+      <c r="G15" s="398" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="397"/>
-      <c r="I15" s="397" t="str">
+      <c r="H15" s="398"/>
+      <c r="I15" s="398" t="str">
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,5,0))</f>
         <v/>
       </c>
-      <c r="J15" s="397"/>
-      <c r="K15" s="397"/>
-      <c r="L15" s="397"/>
-      <c r="M15" s="397"/>
-      <c r="N15" s="397"/>
+      <c r="J15" s="398"/>
+      <c r="K15" s="398"/>
+      <c r="L15" s="398"/>
+      <c r="M15" s="398"/>
+      <c r="N15" s="398"/>
       <c r="O15" s="179"/>
       <c r="P15" s="179"/>
       <c r="Q15" s="179"/>
@@ -9561,17 +9548,17 @@
       </c>
       <c r="E18" s="182"/>
       <c r="F18" s="182"/>
-      <c r="G18" s="397" t="s">
+      <c r="G18" s="398" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="397"/>
-      <c r="I18" s="398" t="str">
+      <c r="H18" s="398"/>
+      <c r="I18" s="399" t="str">
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,19,0))</f>
         <v/>
       </c>
-      <c r="J18" s="398"/>
-      <c r="K18" s="398"/>
-      <c r="L18" s="398"/>
+      <c r="J18" s="399"/>
+      <c r="K18" s="399"/>
+      <c r="L18" s="399"/>
       <c r="M18" s="178"/>
       <c r="N18" s="178"/>
       <c r="O18" s="178"/>
@@ -9589,17 +9576,17 @@
       </c>
       <c r="E19" s="182"/>
       <c r="F19" s="182"/>
-      <c r="G19" s="397" t="s">
+      <c r="G19" s="398" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="397"/>
-      <c r="I19" s="398" t="str">
+      <c r="H19" s="398"/>
+      <c r="I19" s="399" t="str">
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,13,0))</f>
         <v/>
       </c>
-      <c r="J19" s="398"/>
-      <c r="K19" s="398"/>
-      <c r="L19" s="398"/>
+      <c r="J19" s="399"/>
+      <c r="K19" s="399"/>
+      <c r="L19" s="399"/>
       <c r="M19" s="178"/>
       <c r="N19" s="178"/>
       <c r="O19" s="178"/>
@@ -9718,18 +9705,18 @@
         <v/>
       </c>
       <c r="E25" s="177"/>
-      <c r="F25" s="399" t="s">
+      <c r="F25" s="400" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="399"/>
-      <c r="H25" s="399" t="str">
+      <c r="G25" s="400"/>
+      <c r="H25" s="400" t="str">
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,11,0))</f>
         <v/>
       </c>
-      <c r="I25" s="399"/>
-      <c r="J25" s="399"/>
-      <c r="K25" s="399"/>
-      <c r="L25" s="399"/>
+      <c r="I25" s="400"/>
+      <c r="J25" s="400"/>
+      <c r="K25" s="400"/>
+      <c r="L25" s="400"/>
       <c r="M25" s="177"/>
       <c r="N25" s="177"/>
       <c r="O25" s="177"/>
@@ -9763,8 +9750,8 @@
       <c r="B27" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="399"/>
-      <c r="E27" s="399"/>
+      <c r="D27" s="400"/>
+      <c r="E27" s="400"/>
       <c r="F27" s="182"/>
       <c r="G27" s="182"/>
       <c r="I27" s="178"/>
@@ -9786,17 +9773,17 @@
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,20,0))</f>
         <v/>
       </c>
-      <c r="F28" s="408" t="s">
+      <c r="F28" s="409" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="408"/>
-      <c r="H28" s="408" t="str">
+      <c r="G28" s="409"/>
+      <c r="H28" s="409" t="str">
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,21,0))</f>
         <v/>
       </c>
-      <c r="I28" s="408"/>
-      <c r="J28" s="408"/>
-      <c r="K28" s="408"/>
+      <c r="I28" s="409"/>
+      <c r="J28" s="409"/>
+      <c r="K28" s="409"/>
       <c r="L28" s="178"/>
       <c r="M28" s="178"/>
       <c r="N28" s="178"/>
@@ -9814,17 +9801,17 @@
         <v/>
       </c>
       <c r="E29" s="186"/>
-      <c r="F29" s="409" t="s">
+      <c r="F29" s="410" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="409"/>
-      <c r="H29" s="410" t="str">
+      <c r="G29" s="410"/>
+      <c r="H29" s="411" t="str">
         <f>IF($D$15="","",VLOOKUP($D$15,Bang_DSDV,26,0))</f>
         <v/>
       </c>
-      <c r="I29" s="410"/>
-      <c r="J29" s="410"/>
-      <c r="K29" s="410"/>
+      <c r="I29" s="411"/>
+      <c r="J29" s="411"/>
+      <c r="K29" s="411"/>
       <c r="L29" s="186"/>
       <c r="M29" s="186"/>
       <c r="N29" s="186"/>
@@ -9846,14 +9833,14 @@
       <c r="G30" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="408" t="str">
+      <c r="I30" s="409" t="str">
         <f>IF($D$15="","",INDEX([1]DSDV!$E$7:$E$216,MATCH($D$15,[1]DSDV!$G$7:$G$216,0)))</f>
         <v/>
       </c>
-      <c r="J30" s="408"/>
-      <c r="K30" s="408"/>
-      <c r="L30" s="408"/>
-      <c r="M30" s="408"/>
+      <c r="J30" s="409"/>
+      <c r="K30" s="409"/>
+      <c r="L30" s="409"/>
+      <c r="M30" s="409"/>
       <c r="N30" s="178"/>
       <c r="O30" s="178"/>
       <c r="P30" s="178"/>
@@ -9865,16 +9852,16 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="158"/>
-      <c r="B31" s="398" t="s">
+      <c r="B31" s="399" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="398"/>
-      <c r="D31" s="398"/>
-      <c r="E31" s="398"/>
-      <c r="F31" s="398"/>
-      <c r="G31" s="398"/>
-      <c r="H31" s="398"/>
-      <c r="I31" s="398"/>
+      <c r="C31" s="399"/>
+      <c r="D31" s="399"/>
+      <c r="E31" s="399"/>
+      <c r="F31" s="399"/>
+      <c r="G31" s="399"/>
+      <c r="H31" s="399"/>
+      <c r="I31" s="399"/>
       <c r="J31" s="178"/>
       <c r="K31" s="178"/>
       <c r="L31" s="178"/>
@@ -9890,28 +9877,28 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="158"/>
-      <c r="B33" s="402" t="s">
+      <c r="B33" s="403" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="403"/>
-      <c r="D33" s="404" t="s">
+      <c r="C33" s="404"/>
+      <c r="D33" s="405" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="404"/>
-      <c r="F33" s="404"/>
-      <c r="G33" s="404"/>
-      <c r="H33" s="405" t="s">
+      <c r="E33" s="405"/>
+      <c r="F33" s="405"/>
+      <c r="G33" s="405"/>
+      <c r="H33" s="406" t="s">
         <v>173</v>
       </c>
-      <c r="I33" s="405"/>
-      <c r="J33" s="405"/>
-      <c r="K33" s="405"/>
-      <c r="L33" s="405"/>
-      <c r="M33" s="405"/>
-      <c r="N33" s="405"/>
-      <c r="O33" s="405"/>
-      <c r="P33" s="405"/>
-      <c r="Q33" s="405"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="406"/>
+      <c r="K33" s="406"/>
+      <c r="L33" s="406"/>
+      <c r="M33" s="406"/>
+      <c r="N33" s="406"/>
+      <c r="O33" s="406"/>
+      <c r="P33" s="406"/>
+      <c r="Q33" s="406"/>
       <c r="R33" s="176"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -9922,172 +9909,172 @@
       <c r="C34" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="404"/>
-      <c r="E34" s="404"/>
-      <c r="F34" s="404"/>
-      <c r="G34" s="404"/>
-      <c r="H34" s="405"/>
-      <c r="I34" s="405"/>
-      <c r="J34" s="405"/>
-      <c r="K34" s="405"/>
-      <c r="L34" s="405"/>
-      <c r="M34" s="405"/>
-      <c r="N34" s="405"/>
-      <c r="O34" s="405"/>
-      <c r="P34" s="405"/>
-      <c r="Q34" s="405"/>
+      <c r="D34" s="405"/>
+      <c r="E34" s="405"/>
+      <c r="F34" s="405"/>
+      <c r="G34" s="405"/>
+      <c r="H34" s="406"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="406"/>
+      <c r="K34" s="406"/>
+      <c r="L34" s="406"/>
+      <c r="M34" s="406"/>
+      <c r="N34" s="406"/>
+      <c r="O34" s="406"/>
+      <c r="P34" s="406"/>
+      <c r="Q34" s="406"/>
       <c r="R34" s="176"/>
     </row>
     <row r="35" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="189"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="406"/>
-      <c r="E35" s="406"/>
-      <c r="F35" s="406"/>
-      <c r="G35" s="406"/>
-      <c r="H35" s="407"/>
-      <c r="I35" s="407"/>
-      <c r="J35" s="407"/>
-      <c r="K35" s="407"/>
-      <c r="L35" s="407"/>
-      <c r="M35" s="407"/>
-      <c r="N35" s="407"/>
-      <c r="O35" s="407"/>
-      <c r="P35" s="407"/>
-      <c r="Q35" s="407"/>
+      <c r="D35" s="407"/>
+      <c r="E35" s="407"/>
+      <c r="F35" s="407"/>
+      <c r="G35" s="407"/>
+      <c r="H35" s="408"/>
+      <c r="I35" s="408"/>
+      <c r="J35" s="408"/>
+      <c r="K35" s="408"/>
+      <c r="L35" s="408"/>
+      <c r="M35" s="408"/>
+      <c r="N35" s="408"/>
+      <c r="O35" s="408"/>
+      <c r="P35" s="408"/>
+      <c r="Q35" s="408"/>
       <c r="R35" s="190"/>
     </row>
     <row r="36" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="191"/>
       <c r="C36" s="191"/>
-      <c r="D36" s="406"/>
-      <c r="E36" s="406"/>
-      <c r="F36" s="406"/>
-      <c r="G36" s="406"/>
-      <c r="H36" s="407"/>
-      <c r="I36" s="407"/>
-      <c r="J36" s="407"/>
-      <c r="K36" s="407"/>
-      <c r="L36" s="407"/>
-      <c r="M36" s="407"/>
-      <c r="N36" s="407"/>
-      <c r="O36" s="407"/>
-      <c r="P36" s="407"/>
-      <c r="Q36" s="407"/>
+      <c r="D36" s="407"/>
+      <c r="E36" s="407"/>
+      <c r="F36" s="407"/>
+      <c r="G36" s="407"/>
+      <c r="H36" s="408"/>
+      <c r="I36" s="408"/>
+      <c r="J36" s="408"/>
+      <c r="K36" s="408"/>
+      <c r="L36" s="408"/>
+      <c r="M36" s="408"/>
+      <c r="N36" s="408"/>
+      <c r="O36" s="408"/>
+      <c r="P36" s="408"/>
+      <c r="Q36" s="408"/>
       <c r="R36" s="192"/>
     </row>
     <row r="37" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="191"/>
       <c r="C37" s="191"/>
-      <c r="D37" s="406"/>
-      <c r="E37" s="406"/>
-      <c r="F37" s="406"/>
-      <c r="G37" s="406"/>
-      <c r="H37" s="407"/>
-      <c r="I37" s="407"/>
-      <c r="J37" s="407"/>
-      <c r="K37" s="407"/>
-      <c r="L37" s="407"/>
-      <c r="M37" s="407"/>
-      <c r="N37" s="407"/>
-      <c r="O37" s="407"/>
-      <c r="P37" s="407"/>
-      <c r="Q37" s="407"/>
+      <c r="D37" s="407"/>
+      <c r="E37" s="407"/>
+      <c r="F37" s="407"/>
+      <c r="G37" s="407"/>
+      <c r="H37" s="408"/>
+      <c r="I37" s="408"/>
+      <c r="J37" s="408"/>
+      <c r="K37" s="408"/>
+      <c r="L37" s="408"/>
+      <c r="M37" s="408"/>
+      <c r="N37" s="408"/>
+      <c r="O37" s="408"/>
+      <c r="P37" s="408"/>
+      <c r="Q37" s="408"/>
       <c r="R37" s="192"/>
     </row>
     <row r="38" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="191"/>
       <c r="C38" s="191"/>
-      <c r="D38" s="406"/>
-      <c r="E38" s="406"/>
-      <c r="F38" s="406"/>
-      <c r="G38" s="406"/>
-      <c r="H38" s="407"/>
-      <c r="I38" s="407"/>
-      <c r="J38" s="407"/>
-      <c r="K38" s="407"/>
-      <c r="L38" s="407"/>
-      <c r="M38" s="407"/>
-      <c r="N38" s="407"/>
-      <c r="O38" s="407"/>
-      <c r="P38" s="407"/>
-      <c r="Q38" s="407"/>
+      <c r="D38" s="407"/>
+      <c r="E38" s="407"/>
+      <c r="F38" s="407"/>
+      <c r="G38" s="407"/>
+      <c r="H38" s="408"/>
+      <c r="I38" s="408"/>
+      <c r="J38" s="408"/>
+      <c r="K38" s="408"/>
+      <c r="L38" s="408"/>
+      <c r="M38" s="408"/>
+      <c r="N38" s="408"/>
+      <c r="O38" s="408"/>
+      <c r="P38" s="408"/>
+      <c r="Q38" s="408"/>
       <c r="R38" s="192"/>
     </row>
     <row r="39" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="191"/>
       <c r="C39" s="191"/>
-      <c r="D39" s="406"/>
-      <c r="E39" s="406"/>
-      <c r="F39" s="406"/>
-      <c r="G39" s="406"/>
-      <c r="H39" s="407"/>
-      <c r="I39" s="407"/>
-      <c r="J39" s="407"/>
-      <c r="K39" s="407"/>
-      <c r="L39" s="407"/>
-      <c r="M39" s="407"/>
-      <c r="N39" s="407"/>
-      <c r="O39" s="407"/>
-      <c r="P39" s="407"/>
-      <c r="Q39" s="407"/>
+      <c r="D39" s="407"/>
+      <c r="E39" s="407"/>
+      <c r="F39" s="407"/>
+      <c r="G39" s="407"/>
+      <c r="H39" s="408"/>
+      <c r="I39" s="408"/>
+      <c r="J39" s="408"/>
+      <c r="K39" s="408"/>
+      <c r="L39" s="408"/>
+      <c r="M39" s="408"/>
+      <c r="N39" s="408"/>
+      <c r="O39" s="408"/>
+      <c r="P39" s="408"/>
+      <c r="Q39" s="408"/>
       <c r="R39" s="192"/>
     </row>
     <row r="40" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="191"/>
       <c r="C40" s="191"/>
-      <c r="D40" s="406"/>
-      <c r="E40" s="406"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="406"/>
-      <c r="H40" s="407"/>
-      <c r="I40" s="407"/>
-      <c r="J40" s="407"/>
-      <c r="K40" s="407"/>
-      <c r="L40" s="407"/>
-      <c r="M40" s="407"/>
-      <c r="N40" s="407"/>
-      <c r="O40" s="407"/>
-      <c r="P40" s="407"/>
-      <c r="Q40" s="407"/>
+      <c r="D40" s="407"/>
+      <c r="E40" s="407"/>
+      <c r="F40" s="407"/>
+      <c r="G40" s="407"/>
+      <c r="H40" s="408"/>
+      <c r="I40" s="408"/>
+      <c r="J40" s="408"/>
+      <c r="K40" s="408"/>
+      <c r="L40" s="408"/>
+      <c r="M40" s="408"/>
+      <c r="N40" s="408"/>
+      <c r="O40" s="408"/>
+      <c r="P40" s="408"/>
+      <c r="Q40" s="408"/>
       <c r="R40" s="192"/>
     </row>
     <row r="41" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="191"/>
       <c r="C41" s="191"/>
-      <c r="D41" s="406"/>
-      <c r="E41" s="406"/>
-      <c r="F41" s="406"/>
-      <c r="G41" s="406"/>
-      <c r="H41" s="407"/>
-      <c r="I41" s="407"/>
-      <c r="J41" s="407"/>
-      <c r="K41" s="407"/>
-      <c r="L41" s="407"/>
-      <c r="M41" s="407"/>
-      <c r="N41" s="407"/>
-      <c r="O41" s="407"/>
-      <c r="P41" s="407"/>
-      <c r="Q41" s="407"/>
+      <c r="D41" s="407"/>
+      <c r="E41" s="407"/>
+      <c r="F41" s="407"/>
+      <c r="G41" s="407"/>
+      <c r="H41" s="408"/>
+      <c r="I41" s="408"/>
+      <c r="J41" s="408"/>
+      <c r="K41" s="408"/>
+      <c r="L41" s="408"/>
+      <c r="M41" s="408"/>
+      <c r="N41" s="408"/>
+      <c r="O41" s="408"/>
+      <c r="P41" s="408"/>
+      <c r="Q41" s="408"/>
       <c r="R41" s="192"/>
     </row>
     <row r="42" spans="1:18" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="191"/>
       <c r="C42" s="191"/>
-      <c r="D42" s="406"/>
-      <c r="E42" s="406"/>
-      <c r="F42" s="406"/>
-      <c r="G42" s="406"/>
-      <c r="H42" s="407"/>
-      <c r="I42" s="407"/>
-      <c r="J42" s="407"/>
-      <c r="K42" s="407"/>
-      <c r="L42" s="407"/>
-      <c r="M42" s="407"/>
-      <c r="N42" s="407"/>
-      <c r="O42" s="407"/>
-      <c r="P42" s="407"/>
-      <c r="Q42" s="407"/>
+      <c r="D42" s="407"/>
+      <c r="E42" s="407"/>
+      <c r="F42" s="407"/>
+      <c r="G42" s="407"/>
+      <c r="H42" s="408"/>
+      <c r="I42" s="408"/>
+      <c r="J42" s="408"/>
+      <c r="K42" s="408"/>
+      <c r="L42" s="408"/>
+      <c r="M42" s="408"/>
+      <c r="N42" s="408"/>
+      <c r="O42" s="408"/>
+      <c r="P42" s="408"/>
+      <c r="Q42" s="408"/>
       <c r="R42" s="192"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -10101,44 +10088,44 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="158"/>
-      <c r="B44" s="411" t="s">
+      <c r="B44" s="412" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="411"/>
-      <c r="D44" s="411"/>
-      <c r="E44" s="411"/>
-      <c r="F44" s="411"/>
-      <c r="G44" s="411"/>
-      <c r="H44" s="411"/>
-      <c r="I44" s="411"/>
-      <c r="J44" s="411"/>
-      <c r="K44" s="411"/>
-      <c r="L44" s="411"/>
-      <c r="M44" s="411"/>
-      <c r="N44" s="411"/>
-      <c r="O44" s="411"/>
-      <c r="P44" s="411"/>
-      <c r="Q44" s="411"/>
+      <c r="C44" s="412"/>
+      <c r="D44" s="412"/>
+      <c r="E44" s="412"/>
+      <c r="F44" s="412"/>
+      <c r="G44" s="412"/>
+      <c r="H44" s="412"/>
+      <c r="I44" s="412"/>
+      <c r="J44" s="412"/>
+      <c r="K44" s="412"/>
+      <c r="L44" s="412"/>
+      <c r="M44" s="412"/>
+      <c r="N44" s="412"/>
+      <c r="O44" s="412"/>
+      <c r="P44" s="412"/>
+      <c r="Q44" s="412"/>
       <c r="R44" s="194"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="158"/>
-      <c r="B45" s="411"/>
-      <c r="C45" s="411"/>
-      <c r="D45" s="411"/>
-      <c r="E45" s="411"/>
-      <c r="F45" s="411"/>
-      <c r="G45" s="411"/>
-      <c r="H45" s="411"/>
-      <c r="I45" s="411"/>
-      <c r="J45" s="411"/>
-      <c r="K45" s="411"/>
-      <c r="L45" s="411"/>
-      <c r="M45" s="411"/>
-      <c r="N45" s="411"/>
-      <c r="O45" s="411"/>
-      <c r="P45" s="411"/>
-      <c r="Q45" s="411"/>
+      <c r="B45" s="412"/>
+      <c r="C45" s="412"/>
+      <c r="D45" s="412"/>
+      <c r="E45" s="412"/>
+      <c r="F45" s="412"/>
+      <c r="G45" s="412"/>
+      <c r="H45" s="412"/>
+      <c r="I45" s="412"/>
+      <c r="J45" s="412"/>
+      <c r="K45" s="412"/>
+      <c r="L45" s="412"/>
+      <c r="M45" s="412"/>
+      <c r="N45" s="412"/>
+      <c r="O45" s="412"/>
+      <c r="P45" s="412"/>
+      <c r="Q45" s="412"/>
       <c r="R45" s="194"/>
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -10153,258 +10140,258 @@
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="158"/>
-      <c r="B47" s="412" t="s">
+      <c r="B47" s="413" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="414" t="s">
+      <c r="C47" s="415" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="415"/>
-      <c r="E47" s="418" t="s">
+      <c r="D47" s="416"/>
+      <c r="E47" s="419" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="419"/>
-      <c r="G47" s="412" t="s">
+      <c r="F47" s="420"/>
+      <c r="G47" s="413" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="420" t="s">
+      <c r="H47" s="421" t="s">
         <v>180</v>
       </c>
-      <c r="I47" s="420"/>
-      <c r="J47" s="420"/>
-      <c r="K47" s="420"/>
-      <c r="L47" s="420"/>
-      <c r="M47" s="420"/>
-      <c r="N47" s="421" t="s">
+      <c r="I47" s="421"/>
+      <c r="J47" s="421"/>
+      <c r="K47" s="421"/>
+      <c r="L47" s="421"/>
+      <c r="M47" s="421"/>
+      <c r="N47" s="422" t="s">
         <v>181</v>
       </c>
-      <c r="O47" s="421"/>
-      <c r="P47" s="421"/>
-      <c r="Q47" s="421"/>
+      <c r="O47" s="422"/>
+      <c r="P47" s="422"/>
+      <c r="Q47" s="422"/>
       <c r="R47" s="196"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="158"/>
-      <c r="B48" s="413"/>
-      <c r="C48" s="416"/>
-      <c r="D48" s="417"/>
+      <c r="B48" s="414"/>
+      <c r="C48" s="417"/>
+      <c r="D48" s="418"/>
       <c r="E48" s="217" t="s">
         <v>174</v>
       </c>
       <c r="F48" s="217" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="413"/>
-      <c r="H48" s="420"/>
-      <c r="I48" s="420"/>
-      <c r="J48" s="420"/>
-      <c r="K48" s="420"/>
-      <c r="L48" s="420"/>
-      <c r="M48" s="420"/>
-      <c r="N48" s="421"/>
-      <c r="O48" s="421"/>
-      <c r="P48" s="421"/>
-      <c r="Q48" s="421"/>
+      <c r="G48" s="414"/>
+      <c r="H48" s="421"/>
+      <c r="I48" s="421"/>
+      <c r="J48" s="421"/>
+      <c r="K48" s="421"/>
+      <c r="L48" s="421"/>
+      <c r="M48" s="421"/>
+      <c r="N48" s="422"/>
+      <c r="O48" s="422"/>
+      <c r="P48" s="422"/>
+      <c r="Q48" s="422"/>
       <c r="R48" s="196"/>
     </row>
     <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="158"/>
       <c r="B49" s="197"/>
-      <c r="C49" s="422"/>
-      <c r="D49" s="423"/>
+      <c r="C49" s="423"/>
+      <c r="D49" s="424"/>
       <c r="E49" s="198"/>
       <c r="F49" s="199"/>
       <c r="G49" s="197"/>
-      <c r="H49" s="424"/>
-      <c r="I49" s="424"/>
-      <c r="J49" s="424"/>
-      <c r="K49" s="424"/>
-      <c r="L49" s="424"/>
-      <c r="M49" s="424"/>
-      <c r="N49" s="424"/>
-      <c r="O49" s="424"/>
-      <c r="P49" s="424"/>
-      <c r="Q49" s="424"/>
+      <c r="H49" s="425"/>
+      <c r="I49" s="425"/>
+      <c r="J49" s="425"/>
+      <c r="K49" s="425"/>
+      <c r="L49" s="425"/>
+      <c r="M49" s="425"/>
+      <c r="N49" s="425"/>
+      <c r="O49" s="425"/>
+      <c r="P49" s="425"/>
+      <c r="Q49" s="425"/>
       <c r="R49" s="200"/>
     </row>
     <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="158"/>
       <c r="B50" s="197"/>
-      <c r="C50" s="422"/>
-      <c r="D50" s="423"/>
+      <c r="C50" s="423"/>
+      <c r="D50" s="424"/>
       <c r="E50" s="198"/>
       <c r="F50" s="199"/>
       <c r="G50" s="197"/>
-      <c r="H50" s="424"/>
-      <c r="I50" s="424"/>
-      <c r="J50" s="424"/>
-      <c r="K50" s="424"/>
-      <c r="L50" s="424"/>
-      <c r="M50" s="424"/>
-      <c r="N50" s="424"/>
-      <c r="O50" s="424"/>
-      <c r="P50" s="424"/>
-      <c r="Q50" s="424"/>
+      <c r="H50" s="425"/>
+      <c r="I50" s="425"/>
+      <c r="J50" s="425"/>
+      <c r="K50" s="425"/>
+      <c r="L50" s="425"/>
+      <c r="M50" s="425"/>
+      <c r="N50" s="425"/>
+      <c r="O50" s="425"/>
+      <c r="P50" s="425"/>
+      <c r="Q50" s="425"/>
       <c r="R50" s="200"/>
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="158"/>
       <c r="B51" s="197"/>
-      <c r="C51" s="422"/>
-      <c r="D51" s="423"/>
+      <c r="C51" s="423"/>
+      <c r="D51" s="424"/>
       <c r="E51" s="198"/>
       <c r="F51" s="199"/>
       <c r="G51" s="197"/>
-      <c r="H51" s="424"/>
-      <c r="I51" s="424"/>
-      <c r="J51" s="424"/>
-      <c r="K51" s="424"/>
-      <c r="L51" s="424"/>
-      <c r="M51" s="424"/>
-      <c r="N51" s="424"/>
-      <c r="O51" s="424"/>
-      <c r="P51" s="424"/>
-      <c r="Q51" s="424"/>
+      <c r="H51" s="425"/>
+      <c r="I51" s="425"/>
+      <c r="J51" s="425"/>
+      <c r="K51" s="425"/>
+      <c r="L51" s="425"/>
+      <c r="M51" s="425"/>
+      <c r="N51" s="425"/>
+      <c r="O51" s="425"/>
+      <c r="P51" s="425"/>
+      <c r="Q51" s="425"/>
       <c r="R51" s="200"/>
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="158"/>
       <c r="B52" s="197"/>
-      <c r="C52" s="422"/>
-      <c r="D52" s="423"/>
+      <c r="C52" s="423"/>
+      <c r="D52" s="424"/>
       <c r="E52" s="201"/>
       <c r="F52" s="197"/>
       <c r="G52" s="197"/>
-      <c r="H52" s="424"/>
-      <c r="I52" s="424"/>
-      <c r="J52" s="424"/>
-      <c r="K52" s="424"/>
-      <c r="L52" s="424"/>
-      <c r="M52" s="424"/>
-      <c r="N52" s="424"/>
-      <c r="O52" s="424"/>
-      <c r="P52" s="424"/>
-      <c r="Q52" s="424"/>
+      <c r="H52" s="425"/>
+      <c r="I52" s="425"/>
+      <c r="J52" s="425"/>
+      <c r="K52" s="425"/>
+      <c r="L52" s="425"/>
+      <c r="M52" s="425"/>
+      <c r="N52" s="425"/>
+      <c r="O52" s="425"/>
+      <c r="P52" s="425"/>
+      <c r="Q52" s="425"/>
       <c r="R52" s="200"/>
     </row>
     <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="158"/>
       <c r="B53" s="197"/>
-      <c r="C53" s="422"/>
-      <c r="D53" s="423"/>
+      <c r="C53" s="423"/>
+      <c r="D53" s="424"/>
       <c r="E53" s="201"/>
       <c r="F53" s="197"/>
       <c r="G53" s="197"/>
-      <c r="H53" s="424"/>
-      <c r="I53" s="424"/>
-      <c r="J53" s="424"/>
-      <c r="K53" s="424"/>
-      <c r="L53" s="424"/>
-      <c r="M53" s="424"/>
-      <c r="N53" s="424"/>
-      <c r="O53" s="424"/>
-      <c r="P53" s="424"/>
-      <c r="Q53" s="424"/>
+      <c r="H53" s="425"/>
+      <c r="I53" s="425"/>
+      <c r="J53" s="425"/>
+      <c r="K53" s="425"/>
+      <c r="L53" s="425"/>
+      <c r="M53" s="425"/>
+      <c r="N53" s="425"/>
+      <c r="O53" s="425"/>
+      <c r="P53" s="425"/>
+      <c r="Q53" s="425"/>
       <c r="R53" s="200"/>
     </row>
     <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="158"/>
       <c r="B54" s="197"/>
-      <c r="C54" s="422"/>
-      <c r="D54" s="423"/>
+      <c r="C54" s="423"/>
+      <c r="D54" s="424"/>
       <c r="E54" s="201"/>
       <c r="F54" s="197"/>
       <c r="G54" s="197"/>
-      <c r="H54" s="424"/>
-      <c r="I54" s="424"/>
-      <c r="J54" s="424"/>
-      <c r="K54" s="424"/>
-      <c r="L54" s="424"/>
-      <c r="M54" s="424"/>
-      <c r="N54" s="424"/>
-      <c r="O54" s="424"/>
-      <c r="P54" s="424"/>
-      <c r="Q54" s="424"/>
+      <c r="H54" s="425"/>
+      <c r="I54" s="425"/>
+      <c r="J54" s="425"/>
+      <c r="K54" s="425"/>
+      <c r="L54" s="425"/>
+      <c r="M54" s="425"/>
+      <c r="N54" s="425"/>
+      <c r="O54" s="425"/>
+      <c r="P54" s="425"/>
+      <c r="Q54" s="425"/>
       <c r="R54" s="200"/>
     </row>
     <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="158"/>
       <c r="B55" s="197"/>
-      <c r="C55" s="422"/>
-      <c r="D55" s="423"/>
+      <c r="C55" s="423"/>
+      <c r="D55" s="424"/>
       <c r="E55" s="201"/>
       <c r="F55" s="197"/>
       <c r="G55" s="197"/>
-      <c r="H55" s="424"/>
-      <c r="I55" s="424"/>
-      <c r="J55" s="424"/>
-      <c r="K55" s="424"/>
-      <c r="L55" s="424"/>
-      <c r="M55" s="424"/>
-      <c r="N55" s="424"/>
-      <c r="O55" s="424"/>
-      <c r="P55" s="424"/>
-      <c r="Q55" s="424"/>
+      <c r="H55" s="425"/>
+      <c r="I55" s="425"/>
+      <c r="J55" s="425"/>
+      <c r="K55" s="425"/>
+      <c r="L55" s="425"/>
+      <c r="M55" s="425"/>
+      <c r="N55" s="425"/>
+      <c r="O55" s="425"/>
+      <c r="P55" s="425"/>
+      <c r="Q55" s="425"/>
       <c r="R55" s="200"/>
     </row>
     <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="158"/>
       <c r="B56" s="197"/>
-      <c r="C56" s="422"/>
-      <c r="D56" s="423"/>
+      <c r="C56" s="423"/>
+      <c r="D56" s="424"/>
       <c r="E56" s="201"/>
       <c r="F56" s="197"/>
       <c r="G56" s="197"/>
-      <c r="H56" s="424"/>
-      <c r="I56" s="424"/>
-      <c r="J56" s="424"/>
-      <c r="K56" s="424"/>
-      <c r="L56" s="424"/>
-      <c r="M56" s="424"/>
-      <c r="N56" s="424"/>
-      <c r="O56" s="424"/>
-      <c r="P56" s="424"/>
-      <c r="Q56" s="424"/>
+      <c r="H56" s="425"/>
+      <c r="I56" s="425"/>
+      <c r="J56" s="425"/>
+      <c r="K56" s="425"/>
+      <c r="L56" s="425"/>
+      <c r="M56" s="425"/>
+      <c r="N56" s="425"/>
+      <c r="O56" s="425"/>
+      <c r="P56" s="425"/>
+      <c r="Q56" s="425"/>
       <c r="R56" s="200"/>
     </row>
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="158"/>
       <c r="B57" s="197"/>
-      <c r="C57" s="422"/>
-      <c r="D57" s="423"/>
+      <c r="C57" s="423"/>
+      <c r="D57" s="424"/>
       <c r="E57" s="201"/>
       <c r="F57" s="197"/>
       <c r="G57" s="197"/>
-      <c r="H57" s="424"/>
-      <c r="I57" s="424"/>
-      <c r="J57" s="424"/>
-      <c r="K57" s="424"/>
-      <c r="L57" s="424"/>
-      <c r="M57" s="424"/>
-      <c r="N57" s="424"/>
-      <c r="O57" s="424"/>
-      <c r="P57" s="424"/>
-      <c r="Q57" s="424"/>
+      <c r="H57" s="425"/>
+      <c r="I57" s="425"/>
+      <c r="J57" s="425"/>
+      <c r="K57" s="425"/>
+      <c r="L57" s="425"/>
+      <c r="M57" s="425"/>
+      <c r="N57" s="425"/>
+      <c r="O57" s="425"/>
+      <c r="P57" s="425"/>
+      <c r="Q57" s="425"/>
       <c r="R57" s="200"/>
     </row>
     <row r="58" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="158"/>
       <c r="B58" s="202"/>
-      <c r="C58" s="422"/>
-      <c r="D58" s="423"/>
+      <c r="C58" s="423"/>
+      <c r="D58" s="424"/>
       <c r="E58" s="202"/>
       <c r="F58" s="202"/>
       <c r="G58" s="202"/>
-      <c r="H58" s="424"/>
-      <c r="I58" s="424"/>
-      <c r="J58" s="424"/>
-      <c r="K58" s="424"/>
-      <c r="L58" s="424"/>
-      <c r="M58" s="424"/>
-      <c r="N58" s="424"/>
-      <c r="O58" s="424"/>
-      <c r="P58" s="424"/>
-      <c r="Q58" s="424"/>
+      <c r="H58" s="425"/>
+      <c r="I58" s="425"/>
+      <c r="J58" s="425"/>
+      <c r="K58" s="425"/>
+      <c r="L58" s="425"/>
+      <c r="M58" s="425"/>
+      <c r="N58" s="425"/>
+      <c r="O58" s="425"/>
+      <c r="P58" s="425"/>
+      <c r="Q58" s="425"/>
       <c r="R58" s="203"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -10428,64 +10415,64 @@
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="158"/>
-      <c r="B61" s="425" t="s">
+      <c r="B61" s="426" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="425"/>
-      <c r="D61" s="425"/>
-      <c r="E61" s="425"/>
-      <c r="F61" s="425"/>
-      <c r="G61" s="425"/>
-      <c r="H61" s="425"/>
-      <c r="I61" s="425"/>
-      <c r="J61" s="425"/>
-      <c r="K61" s="425"/>
-      <c r="L61" s="425"/>
-      <c r="M61" s="425"/>
-      <c r="N61" s="425"/>
-      <c r="O61" s="425"/>
-      <c r="P61" s="425"/>
-      <c r="Q61" s="425"/>
+      <c r="C61" s="426"/>
+      <c r="D61" s="426"/>
+      <c r="E61" s="426"/>
+      <c r="F61" s="426"/>
+      <c r="G61" s="426"/>
+      <c r="H61" s="426"/>
+      <c r="I61" s="426"/>
+      <c r="J61" s="426"/>
+      <c r="K61" s="426"/>
+      <c r="L61" s="426"/>
+      <c r="M61" s="426"/>
+      <c r="N61" s="426"/>
+      <c r="O61" s="426"/>
+      <c r="P61" s="426"/>
+      <c r="Q61" s="426"/>
       <c r="R61" s="205"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="425"/>
-      <c r="C62" s="425"/>
-      <c r="D62" s="425"/>
-      <c r="E62" s="425"/>
-      <c r="F62" s="425"/>
-      <c r="G62" s="425"/>
-      <c r="H62" s="425"/>
-      <c r="I62" s="425"/>
-      <c r="J62" s="425"/>
-      <c r="K62" s="425"/>
-      <c r="L62" s="425"/>
-      <c r="M62" s="425"/>
-      <c r="N62" s="425"/>
-      <c r="O62" s="425"/>
-      <c r="P62" s="425"/>
-      <c r="Q62" s="425"/>
+      <c r="B62" s="426"/>
+      <c r="C62" s="426"/>
+      <c r="D62" s="426"/>
+      <c r="E62" s="426"/>
+      <c r="F62" s="426"/>
+      <c r="G62" s="426"/>
+      <c r="H62" s="426"/>
+      <c r="I62" s="426"/>
+      <c r="J62" s="426"/>
+      <c r="K62" s="426"/>
+      <c r="L62" s="426"/>
+      <c r="M62" s="426"/>
+      <c r="N62" s="426"/>
+      <c r="O62" s="426"/>
+      <c r="P62" s="426"/>
+      <c r="Q62" s="426"/>
       <c r="R62" s="205"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="426" t="s">
+      <c r="B63" s="427" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="426"/>
-      <c r="D63" s="426"/>
-      <c r="E63" s="426"/>
-      <c r="F63" s="426"/>
-      <c r="G63" s="426"/>
-      <c r="H63" s="426"/>
-      <c r="I63" s="426"/>
-      <c r="J63" s="426"/>
-      <c r="K63" s="426"/>
-      <c r="L63" s="426"/>
-      <c r="M63" s="426"/>
-      <c r="N63" s="426"/>
-      <c r="O63" s="426"/>
-      <c r="P63" s="426"/>
-      <c r="Q63" s="426"/>
+      <c r="C63" s="427"/>
+      <c r="D63" s="427"/>
+      <c r="E63" s="427"/>
+      <c r="F63" s="427"/>
+      <c r="G63" s="427"/>
+      <c r="H63" s="427"/>
+      <c r="I63" s="427"/>
+      <c r="J63" s="427"/>
+      <c r="K63" s="427"/>
+      <c r="L63" s="427"/>
+      <c r="M63" s="427"/>
+      <c r="N63" s="427"/>
+      <c r="O63" s="427"/>
+      <c r="P63" s="427"/>
+      <c r="Q63" s="427"/>
       <c r="R63" s="206"/>
     </row>
     <row r="64" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
@@ -10493,327 +10480,327 @@
       <c r="B64" s="217" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="421" t="s">
+      <c r="C64" s="422" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="421"/>
+      <c r="D64" s="422"/>
       <c r="E64" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="427" t="s">
+      <c r="F64" s="428" t="s">
         <v>104</v>
       </c>
-      <c r="G64" s="428"/>
-      <c r="H64" s="428"/>
-      <c r="I64" s="428"/>
-      <c r="J64" s="428"/>
-      <c r="K64" s="428"/>
-      <c r="L64" s="428"/>
-      <c r="M64" s="428"/>
-      <c r="N64" s="428"/>
-      <c r="O64" s="428"/>
-      <c r="P64" s="428"/>
-      <c r="Q64" s="429"/>
+      <c r="G64" s="429"/>
+      <c r="H64" s="429"/>
+      <c r="I64" s="429"/>
+      <c r="J64" s="429"/>
+      <c r="K64" s="429"/>
+      <c r="L64" s="429"/>
+      <c r="M64" s="429"/>
+      <c r="N64" s="429"/>
+      <c r="O64" s="429"/>
+      <c r="P64" s="429"/>
+      <c r="Q64" s="430"/>
       <c r="R64" s="158"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="207"/>
       <c r="B65" s="208"/>
-      <c r="C65" s="430"/>
-      <c r="D65" s="431"/>
+      <c r="C65" s="431"/>
+      <c r="D65" s="432"/>
       <c r="E65" s="209"/>
-      <c r="F65" s="432"/>
-      <c r="G65" s="433"/>
-      <c r="H65" s="433"/>
-      <c r="I65" s="433"/>
-      <c r="J65" s="433"/>
-      <c r="K65" s="433"/>
-      <c r="L65" s="433"/>
-      <c r="M65" s="433"/>
-      <c r="N65" s="433"/>
-      <c r="O65" s="433"/>
-      <c r="P65" s="433"/>
-      <c r="Q65" s="434"/>
+      <c r="F65" s="433"/>
+      <c r="G65" s="434"/>
+      <c r="H65" s="434"/>
+      <c r="I65" s="434"/>
+      <c r="J65" s="434"/>
+      <c r="K65" s="434"/>
+      <c r="L65" s="434"/>
+      <c r="M65" s="434"/>
+      <c r="N65" s="434"/>
+      <c r="O65" s="434"/>
+      <c r="P65" s="434"/>
+      <c r="Q65" s="435"/>
       <c r="R65" s="158"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="210"/>
       <c r="B66" s="209"/>
-      <c r="C66" s="430"/>
-      <c r="D66" s="431"/>
+      <c r="C66" s="431"/>
+      <c r="D66" s="432"/>
       <c r="E66" s="209"/>
-      <c r="F66" s="432"/>
-      <c r="G66" s="433"/>
-      <c r="H66" s="433"/>
-      <c r="I66" s="433"/>
-      <c r="J66" s="433"/>
-      <c r="K66" s="433"/>
-      <c r="L66" s="433"/>
-      <c r="M66" s="433"/>
-      <c r="N66" s="433"/>
-      <c r="O66" s="433"/>
-      <c r="P66" s="433"/>
-      <c r="Q66" s="434"/>
+      <c r="F66" s="433"/>
+      <c r="G66" s="434"/>
+      <c r="H66" s="434"/>
+      <c r="I66" s="434"/>
+      <c r="J66" s="434"/>
+      <c r="K66" s="434"/>
+      <c r="L66" s="434"/>
+      <c r="M66" s="434"/>
+      <c r="N66" s="434"/>
+      <c r="O66" s="434"/>
+      <c r="P66" s="434"/>
+      <c r="Q66" s="435"/>
       <c r="R66" s="158"/>
     </row>
     <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="210"/>
       <c r="B67" s="209"/>
-      <c r="C67" s="430"/>
-      <c r="D67" s="431"/>
+      <c r="C67" s="431"/>
+      <c r="D67" s="432"/>
       <c r="E67" s="209"/>
-      <c r="F67" s="432"/>
-      <c r="G67" s="433"/>
-      <c r="H67" s="433"/>
-      <c r="I67" s="433"/>
-      <c r="J67" s="433"/>
-      <c r="K67" s="433"/>
-      <c r="L67" s="433"/>
-      <c r="M67" s="433"/>
-      <c r="N67" s="433"/>
-      <c r="O67" s="433"/>
-      <c r="P67" s="433"/>
-      <c r="Q67" s="434"/>
+      <c r="F67" s="433"/>
+      <c r="G67" s="434"/>
+      <c r="H67" s="434"/>
+      <c r="I67" s="434"/>
+      <c r="J67" s="434"/>
+      <c r="K67" s="434"/>
+      <c r="L67" s="434"/>
+      <c r="M67" s="434"/>
+      <c r="N67" s="434"/>
+      <c r="O67" s="434"/>
+      <c r="P67" s="434"/>
+      <c r="Q67" s="435"/>
       <c r="R67" s="158"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="210"/>
       <c r="B68" s="209"/>
-      <c r="C68" s="430"/>
-      <c r="D68" s="431"/>
+      <c r="C68" s="431"/>
+      <c r="D68" s="432"/>
       <c r="E68" s="209"/>
-      <c r="F68" s="432"/>
-      <c r="G68" s="433"/>
-      <c r="H68" s="433"/>
-      <c r="I68" s="433"/>
-      <c r="J68" s="433"/>
-      <c r="K68" s="433"/>
-      <c r="L68" s="433"/>
-      <c r="M68" s="433"/>
-      <c r="N68" s="433"/>
-      <c r="O68" s="433"/>
-      <c r="P68" s="433"/>
-      <c r="Q68" s="434"/>
+      <c r="F68" s="433"/>
+      <c r="G68" s="434"/>
+      <c r="H68" s="434"/>
+      <c r="I68" s="434"/>
+      <c r="J68" s="434"/>
+      <c r="K68" s="434"/>
+      <c r="L68" s="434"/>
+      <c r="M68" s="434"/>
+      <c r="N68" s="434"/>
+      <c r="O68" s="434"/>
+      <c r="P68" s="434"/>
+      <c r="Q68" s="435"/>
       <c r="R68" s="158"/>
     </row>
     <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="210"/>
       <c r="B69" s="209"/>
-      <c r="C69" s="430"/>
-      <c r="D69" s="431"/>
+      <c r="C69" s="431"/>
+      <c r="D69" s="432"/>
       <c r="E69" s="209"/>
-      <c r="F69" s="432"/>
-      <c r="G69" s="433"/>
-      <c r="H69" s="433"/>
-      <c r="I69" s="433"/>
-      <c r="J69" s="433"/>
-      <c r="K69" s="433"/>
-      <c r="L69" s="433"/>
-      <c r="M69" s="433"/>
-      <c r="N69" s="433"/>
-      <c r="O69" s="433"/>
-      <c r="P69" s="433"/>
-      <c r="Q69" s="434"/>
+      <c r="F69" s="433"/>
+      <c r="G69" s="434"/>
+      <c r="H69" s="434"/>
+      <c r="I69" s="434"/>
+      <c r="J69" s="434"/>
+      <c r="K69" s="434"/>
+      <c r="L69" s="434"/>
+      <c r="M69" s="434"/>
+      <c r="N69" s="434"/>
+      <c r="O69" s="434"/>
+      <c r="P69" s="434"/>
+      <c r="Q69" s="435"/>
       <c r="R69" s="158"/>
     </row>
     <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="210"/>
       <c r="B70" s="209"/>
-      <c r="C70" s="430"/>
-      <c r="D70" s="431"/>
+      <c r="C70" s="431"/>
+      <c r="D70" s="432"/>
       <c r="E70" s="209"/>
-      <c r="F70" s="432"/>
-      <c r="G70" s="433"/>
-      <c r="H70" s="433"/>
-      <c r="I70" s="433"/>
-      <c r="J70" s="433"/>
-      <c r="K70" s="433"/>
-      <c r="L70" s="433"/>
-      <c r="M70" s="433"/>
-      <c r="N70" s="433"/>
-      <c r="O70" s="433"/>
-      <c r="P70" s="433"/>
-      <c r="Q70" s="434"/>
+      <c r="F70" s="433"/>
+      <c r="G70" s="434"/>
+      <c r="H70" s="434"/>
+      <c r="I70" s="434"/>
+      <c r="J70" s="434"/>
+      <c r="K70" s="434"/>
+      <c r="L70" s="434"/>
+      <c r="M70" s="434"/>
+      <c r="N70" s="434"/>
+      <c r="O70" s="434"/>
+      <c r="P70" s="434"/>
+      <c r="Q70" s="435"/>
       <c r="R70" s="158"/>
     </row>
     <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="210"/>
       <c r="B71" s="209"/>
-      <c r="C71" s="430"/>
-      <c r="D71" s="431"/>
+      <c r="C71" s="431"/>
+      <c r="D71" s="432"/>
       <c r="E71" s="209"/>
-      <c r="F71" s="432"/>
-      <c r="G71" s="433"/>
-      <c r="H71" s="433"/>
-      <c r="I71" s="433"/>
-      <c r="J71" s="433"/>
-      <c r="K71" s="433"/>
-      <c r="L71" s="433"/>
-      <c r="M71" s="433"/>
-      <c r="N71" s="433"/>
-      <c r="O71" s="433"/>
-      <c r="P71" s="433"/>
-      <c r="Q71" s="434"/>
+      <c r="F71" s="433"/>
+      <c r="G71" s="434"/>
+      <c r="H71" s="434"/>
+      <c r="I71" s="434"/>
+      <c r="J71" s="434"/>
+      <c r="K71" s="434"/>
+      <c r="L71" s="434"/>
+      <c r="M71" s="434"/>
+      <c r="N71" s="434"/>
+      <c r="O71" s="434"/>
+      <c r="P71" s="434"/>
+      <c r="Q71" s="435"/>
       <c r="R71" s="158"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="210"/>
       <c r="B72" s="209"/>
-      <c r="C72" s="430"/>
-      <c r="D72" s="431"/>
+      <c r="C72" s="431"/>
+      <c r="D72" s="432"/>
       <c r="E72" s="209"/>
-      <c r="F72" s="432"/>
-      <c r="G72" s="433"/>
-      <c r="H72" s="433"/>
-      <c r="I72" s="433"/>
-      <c r="J72" s="433"/>
-      <c r="K72" s="433"/>
-      <c r="L72" s="433"/>
-      <c r="M72" s="433"/>
-      <c r="N72" s="433"/>
-      <c r="O72" s="433"/>
-      <c r="P72" s="433"/>
-      <c r="Q72" s="434"/>
+      <c r="F72" s="433"/>
+      <c r="G72" s="434"/>
+      <c r="H72" s="434"/>
+      <c r="I72" s="434"/>
+      <c r="J72" s="434"/>
+      <c r="K72" s="434"/>
+      <c r="L72" s="434"/>
+      <c r="M72" s="434"/>
+      <c r="N72" s="434"/>
+      <c r="O72" s="434"/>
+      <c r="P72" s="434"/>
+      <c r="Q72" s="435"/>
       <c r="R72" s="158"/>
     </row>
     <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="210"/>
       <c r="B73" s="209"/>
-      <c r="C73" s="430"/>
-      <c r="D73" s="431"/>
+      <c r="C73" s="431"/>
+      <c r="D73" s="432"/>
       <c r="E73" s="209"/>
-      <c r="F73" s="432"/>
-      <c r="G73" s="433"/>
-      <c r="H73" s="433"/>
-      <c r="I73" s="433"/>
-      <c r="J73" s="433"/>
-      <c r="K73" s="433"/>
-      <c r="L73" s="433"/>
-      <c r="M73" s="433"/>
-      <c r="N73" s="433"/>
-      <c r="O73" s="433"/>
-      <c r="P73" s="433"/>
-      <c r="Q73" s="434"/>
+      <c r="F73" s="433"/>
+      <c r="G73" s="434"/>
+      <c r="H73" s="434"/>
+      <c r="I73" s="434"/>
+      <c r="J73" s="434"/>
+      <c r="K73" s="434"/>
+      <c r="L73" s="434"/>
+      <c r="M73" s="434"/>
+      <c r="N73" s="434"/>
+      <c r="O73" s="434"/>
+      <c r="P73" s="434"/>
+      <c r="Q73" s="435"/>
       <c r="R73" s="158"/>
     </row>
     <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="210"/>
       <c r="B74" s="209"/>
-      <c r="C74" s="430"/>
-      <c r="D74" s="431"/>
+      <c r="C74" s="431"/>
+      <c r="D74" s="432"/>
       <c r="E74" s="209"/>
-      <c r="F74" s="432"/>
-      <c r="G74" s="433"/>
-      <c r="H74" s="433"/>
-      <c r="I74" s="433"/>
-      <c r="J74" s="433"/>
-      <c r="K74" s="433"/>
-      <c r="L74" s="433"/>
-      <c r="M74" s="433"/>
-      <c r="N74" s="433"/>
-      <c r="O74" s="433"/>
-      <c r="P74" s="433"/>
-      <c r="Q74" s="434"/>
+      <c r="F74" s="433"/>
+      <c r="G74" s="434"/>
+      <c r="H74" s="434"/>
+      <c r="I74" s="434"/>
+      <c r="J74" s="434"/>
+      <c r="K74" s="434"/>
+      <c r="L74" s="434"/>
+      <c r="M74" s="434"/>
+      <c r="N74" s="434"/>
+      <c r="O74" s="434"/>
+      <c r="P74" s="434"/>
+      <c r="Q74" s="435"/>
       <c r="R74" s="158"/>
     </row>
     <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="210"/>
       <c r="B75" s="209"/>
-      <c r="C75" s="430"/>
-      <c r="D75" s="431"/>
+      <c r="C75" s="431"/>
+      <c r="D75" s="432"/>
       <c r="E75" s="209"/>
-      <c r="F75" s="432"/>
-      <c r="G75" s="433"/>
-      <c r="H75" s="433"/>
-      <c r="I75" s="433"/>
-      <c r="J75" s="433"/>
-      <c r="K75" s="433"/>
-      <c r="L75" s="433"/>
-      <c r="M75" s="433"/>
-      <c r="N75" s="433"/>
-      <c r="O75" s="433"/>
-      <c r="P75" s="433"/>
-      <c r="Q75" s="434"/>
+      <c r="F75" s="433"/>
+      <c r="G75" s="434"/>
+      <c r="H75" s="434"/>
+      <c r="I75" s="434"/>
+      <c r="J75" s="434"/>
+      <c r="K75" s="434"/>
+      <c r="L75" s="434"/>
+      <c r="M75" s="434"/>
+      <c r="N75" s="434"/>
+      <c r="O75" s="434"/>
+      <c r="P75" s="434"/>
+      <c r="Q75" s="435"/>
       <c r="R75" s="158"/>
     </row>
     <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="210"/>
       <c r="B76" s="209"/>
-      <c r="C76" s="430"/>
-      <c r="D76" s="431"/>
+      <c r="C76" s="431"/>
+      <c r="D76" s="432"/>
       <c r="E76" s="209"/>
-      <c r="F76" s="432"/>
-      <c r="G76" s="433"/>
-      <c r="H76" s="433"/>
-      <c r="I76" s="433"/>
-      <c r="J76" s="433"/>
-      <c r="K76" s="433"/>
-      <c r="L76" s="433"/>
-      <c r="M76" s="433"/>
-      <c r="N76" s="433"/>
-      <c r="O76" s="433"/>
-      <c r="P76" s="433"/>
-      <c r="Q76" s="434"/>
+      <c r="F76" s="433"/>
+      <c r="G76" s="434"/>
+      <c r="H76" s="434"/>
+      <c r="I76" s="434"/>
+      <c r="J76" s="434"/>
+      <c r="K76" s="434"/>
+      <c r="L76" s="434"/>
+      <c r="M76" s="434"/>
+      <c r="N76" s="434"/>
+      <c r="O76" s="434"/>
+      <c r="P76" s="434"/>
+      <c r="Q76" s="435"/>
       <c r="R76" s="158"/>
     </row>
     <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="210"/>
       <c r="B77" s="209"/>
-      <c r="C77" s="430"/>
-      <c r="D77" s="431"/>
+      <c r="C77" s="431"/>
+      <c r="D77" s="432"/>
       <c r="E77" s="209"/>
-      <c r="F77" s="432"/>
-      <c r="G77" s="433"/>
-      <c r="H77" s="433"/>
-      <c r="I77" s="433"/>
-      <c r="J77" s="433"/>
-      <c r="K77" s="433"/>
-      <c r="L77" s="433"/>
-      <c r="M77" s="433"/>
-      <c r="N77" s="433"/>
-      <c r="O77" s="433"/>
-      <c r="P77" s="433"/>
-      <c r="Q77" s="434"/>
+      <c r="F77" s="433"/>
+      <c r="G77" s="434"/>
+      <c r="H77" s="434"/>
+      <c r="I77" s="434"/>
+      <c r="J77" s="434"/>
+      <c r="K77" s="434"/>
+      <c r="L77" s="434"/>
+      <c r="M77" s="434"/>
+      <c r="N77" s="434"/>
+      <c r="O77" s="434"/>
+      <c r="P77" s="434"/>
+      <c r="Q77" s="435"/>
       <c r="R77" s="158"/>
     </row>
     <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="210"/>
       <c r="B78" s="209"/>
-      <c r="C78" s="430"/>
-      <c r="D78" s="431"/>
+      <c r="C78" s="431"/>
+      <c r="D78" s="432"/>
       <c r="E78" s="209"/>
-      <c r="F78" s="432"/>
-      <c r="G78" s="433"/>
-      <c r="H78" s="433"/>
-      <c r="I78" s="433"/>
-      <c r="J78" s="433"/>
-      <c r="K78" s="433"/>
-      <c r="L78" s="433"/>
-      <c r="M78" s="433"/>
-      <c r="N78" s="433"/>
-      <c r="O78" s="433"/>
-      <c r="P78" s="433"/>
-      <c r="Q78" s="434"/>
+      <c r="F78" s="433"/>
+      <c r="G78" s="434"/>
+      <c r="H78" s="434"/>
+      <c r="I78" s="434"/>
+      <c r="J78" s="434"/>
+      <c r="K78" s="434"/>
+      <c r="L78" s="434"/>
+      <c r="M78" s="434"/>
+      <c r="N78" s="434"/>
+      <c r="O78" s="434"/>
+      <c r="P78" s="434"/>
+      <c r="Q78" s="435"/>
       <c r="R78" s="158"/>
     </row>
     <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="210"/>
       <c r="B79" s="209"/>
-      <c r="C79" s="430"/>
-      <c r="D79" s="431"/>
+      <c r="C79" s="431"/>
+      <c r="D79" s="432"/>
       <c r="E79" s="209"/>
-      <c r="F79" s="432"/>
-      <c r="G79" s="433"/>
-      <c r="H79" s="433"/>
-      <c r="I79" s="433"/>
-      <c r="J79" s="433"/>
-      <c r="K79" s="433"/>
-      <c r="L79" s="433"/>
-      <c r="M79" s="433"/>
-      <c r="N79" s="433"/>
-      <c r="O79" s="433"/>
-      <c r="P79" s="433"/>
-      <c r="Q79" s="434"/>
+      <c r="F79" s="433"/>
+      <c r="G79" s="434"/>
+      <c r="H79" s="434"/>
+      <c r="I79" s="434"/>
+      <c r="J79" s="434"/>
+      <c r="K79" s="434"/>
+      <c r="L79" s="434"/>
+      <c r="M79" s="434"/>
+      <c r="N79" s="434"/>
+      <c r="O79" s="434"/>
+      <c r="P79" s="434"/>
+      <c r="Q79" s="435"/>
       <c r="R79" s="158"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -10827,24 +10814,24 @@
     </row>
     <row r="81" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="158"/>
-      <c r="B81" s="435" t="s">
+      <c r="B81" s="436" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="435"/>
-      <c r="D81" s="435"/>
-      <c r="E81" s="435"/>
-      <c r="F81" s="435"/>
-      <c r="G81" s="435"/>
-      <c r="H81" s="435"/>
-      <c r="I81" s="435"/>
-      <c r="J81" s="435"/>
-      <c r="K81" s="435"/>
-      <c r="L81" s="435"/>
-      <c r="M81" s="435"/>
-      <c r="N81" s="435"/>
-      <c r="O81" s="435"/>
-      <c r="P81" s="435"/>
-      <c r="Q81" s="435"/>
+      <c r="C81" s="436"/>
+      <c r="D81" s="436"/>
+      <c r="E81" s="436"/>
+      <c r="F81" s="436"/>
+      <c r="G81" s="436"/>
+      <c r="H81" s="436"/>
+      <c r="I81" s="436"/>
+      <c r="J81" s="436"/>
+      <c r="K81" s="436"/>
+      <c r="L81" s="436"/>
+      <c r="M81" s="436"/>
+      <c r="N81" s="436"/>
+      <c r="O81" s="436"/>
+      <c r="P81" s="436"/>
+      <c r="Q81" s="436"/>
       <c r="R81" s="211"/>
     </row>
     <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -10869,35 +10856,35 @@
     </row>
     <row r="83" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="158"/>
-      <c r="B83" s="436" t="s">
+      <c r="B83" s="437" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="436" t="s">
+      <c r="C83" s="437" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="436"/>
-      <c r="E83" s="436"/>
-      <c r="F83" s="436"/>
-      <c r="G83" s="436" t="s">
+      <c r="D83" s="437"/>
+      <c r="E83" s="437"/>
+      <c r="F83" s="437"/>
+      <c r="G83" s="437" t="s">
         <v>189</v>
       </c>
-      <c r="H83" s="436"/>
-      <c r="I83" s="436"/>
-      <c r="J83" s="436"/>
-      <c r="K83" s="436"/>
-      <c r="L83" s="436"/>
-      <c r="M83" s="436"/>
-      <c r="N83" s="436" t="s">
+      <c r="H83" s="437"/>
+      <c r="I83" s="437"/>
+      <c r="J83" s="437"/>
+      <c r="K83" s="437"/>
+      <c r="L83" s="437"/>
+      <c r="M83" s="437"/>
+      <c r="N83" s="437" t="s">
         <v>190</v>
       </c>
-      <c r="O83" s="436"/>
-      <c r="P83" s="436"/>
-      <c r="Q83" s="436"/>
+      <c r="O83" s="437"/>
+      <c r="P83" s="437"/>
+      <c r="Q83" s="437"/>
       <c r="R83" s="158"/>
     </row>
     <row r="84" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A84" s="158"/>
-      <c r="B84" s="436"/>
+      <c r="B84" s="437"/>
       <c r="C84" s="218" t="s">
         <v>106</v>
       </c>
@@ -10910,21 +10897,21 @@
       <c r="F84" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="G84" s="437" t="s">
+      <c r="G84" s="438" t="s">
         <v>46</v>
       </c>
-      <c r="H84" s="438"/>
-      <c r="I84" s="437" t="s">
+      <c r="H84" s="439"/>
+      <c r="I84" s="438" t="s">
         <v>123</v>
       </c>
-      <c r="J84" s="443"/>
-      <c r="K84" s="443"/>
-      <c r="L84" s="443"/>
-      <c r="M84" s="438"/>
-      <c r="N84" s="436"/>
-      <c r="O84" s="436"/>
-      <c r="P84" s="436"/>
-      <c r="Q84" s="436"/>
+      <c r="J84" s="444"/>
+      <c r="K84" s="444"/>
+      <c r="L84" s="444"/>
+      <c r="M84" s="439"/>
+      <c r="N84" s="437"/>
+      <c r="O84" s="437"/>
+      <c r="P84" s="437"/>
+      <c r="Q84" s="437"/>
       <c r="R84" s="158"/>
     </row>
     <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -10934,17 +10921,17 @@
       <c r="D85" s="209"/>
       <c r="E85" s="209"/>
       <c r="F85" s="209"/>
-      <c r="G85" s="439"/>
-      <c r="H85" s="440"/>
-      <c r="I85" s="439"/>
-      <c r="J85" s="441"/>
-      <c r="K85" s="441"/>
-      <c r="L85" s="441"/>
-      <c r="M85" s="440"/>
-      <c r="N85" s="442"/>
-      <c r="O85" s="442"/>
-      <c r="P85" s="442"/>
-      <c r="Q85" s="442"/>
+      <c r="G85" s="440"/>
+      <c r="H85" s="441"/>
+      <c r="I85" s="440"/>
+      <c r="J85" s="442"/>
+      <c r="K85" s="442"/>
+      <c r="L85" s="442"/>
+      <c r="M85" s="441"/>
+      <c r="N85" s="443"/>
+      <c r="O85" s="443"/>
+      <c r="P85" s="443"/>
+      <c r="Q85" s="443"/>
       <c r="R85" s="158"/>
     </row>
     <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -10954,17 +10941,17 @@
       <c r="D86" s="209"/>
       <c r="E86" s="209"/>
       <c r="F86" s="209"/>
-      <c r="G86" s="439"/>
-      <c r="H86" s="440"/>
-      <c r="I86" s="439"/>
-      <c r="J86" s="441"/>
-      <c r="K86" s="441"/>
-      <c r="L86" s="441"/>
-      <c r="M86" s="440"/>
-      <c r="N86" s="442"/>
-      <c r="O86" s="442"/>
-      <c r="P86" s="442"/>
-      <c r="Q86" s="442"/>
+      <c r="G86" s="440"/>
+      <c r="H86" s="441"/>
+      <c r="I86" s="440"/>
+      <c r="J86" s="442"/>
+      <c r="K86" s="442"/>
+      <c r="L86" s="442"/>
+      <c r="M86" s="441"/>
+      <c r="N86" s="443"/>
+      <c r="O86" s="443"/>
+      <c r="P86" s="443"/>
+      <c r="Q86" s="443"/>
       <c r="R86" s="158"/>
     </row>
     <row r="87" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -10974,17 +10961,17 @@
       <c r="D87" s="209"/>
       <c r="E87" s="209"/>
       <c r="F87" s="209"/>
-      <c r="G87" s="439"/>
-      <c r="H87" s="440"/>
-      <c r="I87" s="439"/>
-      <c r="J87" s="441"/>
-      <c r="K87" s="441"/>
-      <c r="L87" s="441"/>
-      <c r="M87" s="440"/>
-      <c r="N87" s="442"/>
-      <c r="O87" s="442"/>
-      <c r="P87" s="442"/>
-      <c r="Q87" s="442"/>
+      <c r="G87" s="440"/>
+      <c r="H87" s="441"/>
+      <c r="I87" s="440"/>
+      <c r="J87" s="442"/>
+      <c r="K87" s="442"/>
+      <c r="L87" s="442"/>
+      <c r="M87" s="441"/>
+      <c r="N87" s="443"/>
+      <c r="O87" s="443"/>
+      <c r="P87" s="443"/>
+      <c r="Q87" s="443"/>
       <c r="R87" s="158"/>
     </row>
     <row r="88" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -10994,17 +10981,17 @@
       <c r="D88" s="209"/>
       <c r="E88" s="209"/>
       <c r="F88" s="209"/>
-      <c r="G88" s="439"/>
-      <c r="H88" s="440"/>
-      <c r="I88" s="439"/>
-      <c r="J88" s="441"/>
-      <c r="K88" s="441"/>
-      <c r="L88" s="441"/>
-      <c r="M88" s="440"/>
-      <c r="N88" s="442"/>
-      <c r="O88" s="442"/>
-      <c r="P88" s="442"/>
-      <c r="Q88" s="442"/>
+      <c r="G88" s="440"/>
+      <c r="H88" s="441"/>
+      <c r="I88" s="440"/>
+      <c r="J88" s="442"/>
+      <c r="K88" s="442"/>
+      <c r="L88" s="442"/>
+      <c r="M88" s="441"/>
+      <c r="N88" s="443"/>
+      <c r="O88" s="443"/>
+      <c r="P88" s="443"/>
+      <c r="Q88" s="443"/>
       <c r="R88" s="158"/>
     </row>
     <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11014,17 +11001,17 @@
       <c r="D89" s="209"/>
       <c r="E89" s="209"/>
       <c r="F89" s="209"/>
-      <c r="G89" s="439"/>
-      <c r="H89" s="440"/>
-      <c r="I89" s="439"/>
-      <c r="J89" s="441"/>
-      <c r="K89" s="441"/>
-      <c r="L89" s="441"/>
-      <c r="M89" s="440"/>
-      <c r="N89" s="442"/>
-      <c r="O89" s="442"/>
-      <c r="P89" s="442"/>
-      <c r="Q89" s="442"/>
+      <c r="G89" s="440"/>
+      <c r="H89" s="441"/>
+      <c r="I89" s="440"/>
+      <c r="J89" s="442"/>
+      <c r="K89" s="442"/>
+      <c r="L89" s="442"/>
+      <c r="M89" s="441"/>
+      <c r="N89" s="443"/>
+      <c r="O89" s="443"/>
+      <c r="P89" s="443"/>
+      <c r="Q89" s="443"/>
       <c r="R89" s="158"/>
     </row>
     <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11034,17 +11021,17 @@
       <c r="D90" s="209"/>
       <c r="E90" s="209"/>
       <c r="F90" s="209"/>
-      <c r="G90" s="439"/>
-      <c r="H90" s="440"/>
-      <c r="I90" s="439"/>
-      <c r="J90" s="441"/>
-      <c r="K90" s="441"/>
-      <c r="L90" s="441"/>
-      <c r="M90" s="440"/>
-      <c r="N90" s="442"/>
-      <c r="O90" s="442"/>
-      <c r="P90" s="442"/>
-      <c r="Q90" s="442"/>
+      <c r="G90" s="440"/>
+      <c r="H90" s="441"/>
+      <c r="I90" s="440"/>
+      <c r="J90" s="442"/>
+      <c r="K90" s="442"/>
+      <c r="L90" s="442"/>
+      <c r="M90" s="441"/>
+      <c r="N90" s="443"/>
+      <c r="O90" s="443"/>
+      <c r="P90" s="443"/>
+      <c r="Q90" s="443"/>
       <c r="R90" s="158"/>
     </row>
     <row r="91" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11054,17 +11041,17 @@
       <c r="D91" s="209"/>
       <c r="E91" s="209"/>
       <c r="F91" s="209"/>
-      <c r="G91" s="439"/>
-      <c r="H91" s="440"/>
-      <c r="I91" s="439"/>
-      <c r="J91" s="441"/>
-      <c r="K91" s="441"/>
-      <c r="L91" s="441"/>
-      <c r="M91" s="440"/>
-      <c r="N91" s="442"/>
-      <c r="O91" s="442"/>
-      <c r="P91" s="442"/>
-      <c r="Q91" s="442"/>
+      <c r="G91" s="440"/>
+      <c r="H91" s="441"/>
+      <c r="I91" s="440"/>
+      <c r="J91" s="442"/>
+      <c r="K91" s="442"/>
+      <c r="L91" s="442"/>
+      <c r="M91" s="441"/>
+      <c r="N91" s="443"/>
+      <c r="O91" s="443"/>
+      <c r="P91" s="443"/>
+      <c r="Q91" s="443"/>
       <c r="R91" s="158"/>
     </row>
     <row r="92" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11074,17 +11061,17 @@
       <c r="D92" s="209"/>
       <c r="E92" s="209"/>
       <c r="F92" s="209"/>
-      <c r="G92" s="439"/>
-      <c r="H92" s="440"/>
-      <c r="I92" s="439"/>
-      <c r="J92" s="441"/>
-      <c r="K92" s="441"/>
-      <c r="L92" s="441"/>
-      <c r="M92" s="440"/>
-      <c r="N92" s="442"/>
-      <c r="O92" s="442"/>
-      <c r="P92" s="442"/>
-      <c r="Q92" s="442"/>
+      <c r="G92" s="440"/>
+      <c r="H92" s="441"/>
+      <c r="I92" s="440"/>
+      <c r="J92" s="442"/>
+      <c r="K92" s="442"/>
+      <c r="L92" s="442"/>
+      <c r="M92" s="441"/>
+      <c r="N92" s="443"/>
+      <c r="O92" s="443"/>
+      <c r="P92" s="443"/>
+      <c r="Q92" s="443"/>
       <c r="R92" s="158"/>
     </row>
     <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11094,17 +11081,17 @@
       <c r="D93" s="209"/>
       <c r="E93" s="209"/>
       <c r="F93" s="209"/>
-      <c r="G93" s="439"/>
-      <c r="H93" s="440"/>
-      <c r="I93" s="439"/>
-      <c r="J93" s="441"/>
-      <c r="K93" s="441"/>
-      <c r="L93" s="441"/>
-      <c r="M93" s="440"/>
-      <c r="N93" s="442"/>
-      <c r="O93" s="442"/>
-      <c r="P93" s="442"/>
-      <c r="Q93" s="442"/>
+      <c r="G93" s="440"/>
+      <c r="H93" s="441"/>
+      <c r="I93" s="440"/>
+      <c r="J93" s="442"/>
+      <c r="K93" s="442"/>
+      <c r="L93" s="442"/>
+      <c r="M93" s="441"/>
+      <c r="N93" s="443"/>
+      <c r="O93" s="443"/>
+      <c r="P93" s="443"/>
+      <c r="Q93" s="443"/>
       <c r="R93" s="158"/>
     </row>
     <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11114,17 +11101,17 @@
       <c r="D94" s="209"/>
       <c r="E94" s="209"/>
       <c r="F94" s="209"/>
-      <c r="G94" s="439"/>
-      <c r="H94" s="440"/>
-      <c r="I94" s="439"/>
-      <c r="J94" s="441"/>
-      <c r="K94" s="441"/>
-      <c r="L94" s="441"/>
-      <c r="M94" s="440"/>
-      <c r="N94" s="442"/>
-      <c r="O94" s="442"/>
-      <c r="P94" s="442"/>
-      <c r="Q94" s="442"/>
+      <c r="G94" s="440"/>
+      <c r="H94" s="441"/>
+      <c r="I94" s="440"/>
+      <c r="J94" s="442"/>
+      <c r="K94" s="442"/>
+      <c r="L94" s="442"/>
+      <c r="M94" s="441"/>
+      <c r="N94" s="443"/>
+      <c r="O94" s="443"/>
+      <c r="P94" s="443"/>
+      <c r="Q94" s="443"/>
       <c r="R94" s="158"/>
     </row>
     <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11134,17 +11121,17 @@
       <c r="D95" s="209"/>
       <c r="E95" s="209"/>
       <c r="F95" s="209"/>
-      <c r="G95" s="439"/>
-      <c r="H95" s="440"/>
-      <c r="I95" s="439"/>
-      <c r="J95" s="441"/>
-      <c r="K95" s="441"/>
-      <c r="L95" s="441"/>
-      <c r="M95" s="440"/>
-      <c r="N95" s="442"/>
-      <c r="O95" s="442"/>
-      <c r="P95" s="442"/>
-      <c r="Q95" s="442"/>
+      <c r="G95" s="440"/>
+      <c r="H95" s="441"/>
+      <c r="I95" s="440"/>
+      <c r="J95" s="442"/>
+      <c r="K95" s="442"/>
+      <c r="L95" s="442"/>
+      <c r="M95" s="441"/>
+      <c r="N95" s="443"/>
+      <c r="O95" s="443"/>
+      <c r="P95" s="443"/>
+      <c r="Q95" s="443"/>
       <c r="R95" s="158"/>
     </row>
     <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11154,17 +11141,17 @@
       <c r="D96" s="209"/>
       <c r="E96" s="209"/>
       <c r="F96" s="209"/>
-      <c r="G96" s="439"/>
-      <c r="H96" s="440"/>
-      <c r="I96" s="439"/>
-      <c r="J96" s="441"/>
-      <c r="K96" s="441"/>
-      <c r="L96" s="441"/>
-      <c r="M96" s="440"/>
-      <c r="N96" s="442"/>
-      <c r="O96" s="442"/>
-      <c r="P96" s="442"/>
-      <c r="Q96" s="442"/>
+      <c r="G96" s="440"/>
+      <c r="H96" s="441"/>
+      <c r="I96" s="440"/>
+      <c r="J96" s="442"/>
+      <c r="K96" s="442"/>
+      <c r="L96" s="442"/>
+      <c r="M96" s="441"/>
+      <c r="N96" s="443"/>
+      <c r="O96" s="443"/>
+      <c r="P96" s="443"/>
+      <c r="Q96" s="443"/>
       <c r="R96" s="158"/>
     </row>
     <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11174,17 +11161,17 @@
       <c r="D97" s="209"/>
       <c r="E97" s="209"/>
       <c r="F97" s="209"/>
-      <c r="G97" s="439"/>
-      <c r="H97" s="440"/>
-      <c r="I97" s="439"/>
-      <c r="J97" s="441"/>
-      <c r="K97" s="441"/>
-      <c r="L97" s="441"/>
-      <c r="M97" s="440"/>
-      <c r="N97" s="442"/>
-      <c r="O97" s="442"/>
-      <c r="P97" s="442"/>
-      <c r="Q97" s="442"/>
+      <c r="G97" s="440"/>
+      <c r="H97" s="441"/>
+      <c r="I97" s="440"/>
+      <c r="J97" s="442"/>
+      <c r="K97" s="442"/>
+      <c r="L97" s="442"/>
+      <c r="M97" s="441"/>
+      <c r="N97" s="443"/>
+      <c r="O97" s="443"/>
+      <c r="P97" s="443"/>
+      <c r="Q97" s="443"/>
       <c r="R97" s="158"/>
     </row>
     <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11194,17 +11181,17 @@
       <c r="D98" s="209"/>
       <c r="E98" s="209"/>
       <c r="F98" s="209"/>
-      <c r="G98" s="439"/>
-      <c r="H98" s="440"/>
-      <c r="I98" s="439"/>
-      <c r="J98" s="441"/>
-      <c r="K98" s="441"/>
-      <c r="L98" s="441"/>
-      <c r="M98" s="440"/>
-      <c r="N98" s="442"/>
-      <c r="O98" s="442"/>
-      <c r="P98" s="442"/>
-      <c r="Q98" s="442"/>
+      <c r="G98" s="440"/>
+      <c r="H98" s="441"/>
+      <c r="I98" s="440"/>
+      <c r="J98" s="442"/>
+      <c r="K98" s="442"/>
+      <c r="L98" s="442"/>
+      <c r="M98" s="441"/>
+      <c r="N98" s="443"/>
+      <c r="O98" s="443"/>
+      <c r="P98" s="443"/>
+      <c r="Q98" s="443"/>
       <c r="R98" s="158"/>
     </row>
     <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -11214,40 +11201,40 @@
       <c r="D99" s="209"/>
       <c r="E99" s="209"/>
       <c r="F99" s="209"/>
-      <c r="G99" s="439"/>
-      <c r="H99" s="440"/>
-      <c r="I99" s="439"/>
-      <c r="J99" s="441"/>
-      <c r="K99" s="441"/>
-      <c r="L99" s="441"/>
-      <c r="M99" s="440"/>
-      <c r="N99" s="442"/>
-      <c r="O99" s="442"/>
-      <c r="P99" s="442"/>
-      <c r="Q99" s="442"/>
+      <c r="G99" s="440"/>
+      <c r="H99" s="441"/>
+      <c r="I99" s="440"/>
+      <c r="J99" s="442"/>
+      <c r="K99" s="442"/>
+      <c r="L99" s="442"/>
+      <c r="M99" s="441"/>
+      <c r="N99" s="443"/>
+      <c r="O99" s="443"/>
+      <c r="P99" s="443"/>
+      <c r="Q99" s="443"/>
       <c r="R99" s="163"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="158"/>
-      <c r="B100" s="449" t="s">
+      <c r="B100" s="450" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="449"/>
-      <c r="D100" s="449"/>
-      <c r="E100" s="449"/>
-      <c r="F100" s="449"/>
-      <c r="G100" s="449"/>
-      <c r="H100" s="449"/>
-      <c r="I100" s="449"/>
-      <c r="J100" s="449"/>
-      <c r="K100" s="449"/>
-      <c r="L100" s="449"/>
-      <c r="M100" s="449"/>
-      <c r="N100" s="449"/>
-      <c r="O100" s="449"/>
-      <c r="P100" s="449"/>
-      <c r="Q100" s="449"/>
-      <c r="R100" s="450"/>
+      <c r="C100" s="450"/>
+      <c r="D100" s="450"/>
+      <c r="E100" s="450"/>
+      <c r="F100" s="450"/>
+      <c r="G100" s="450"/>
+      <c r="H100" s="450"/>
+      <c r="I100" s="450"/>
+      <c r="J100" s="450"/>
+      <c r="K100" s="450"/>
+      <c r="L100" s="450"/>
+      <c r="M100" s="450"/>
+      <c r="N100" s="450"/>
+      <c r="O100" s="450"/>
+      <c r="P100" s="450"/>
+      <c r="Q100" s="450"/>
+      <c r="R100" s="451"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="158"/>
@@ -11255,108 +11242,108 @@
       <c r="C101" s="193"/>
       <c r="D101" s="171"/>
       <c r="E101" s="166"/>
-      <c r="F101" s="451" t="s">
+      <c r="F101" s="452" t="s">
         <v>193</v>
       </c>
-      <c r="G101" s="451"/>
-      <c r="H101" s="451"/>
-      <c r="I101" s="451"/>
-      <c r="J101" s="451"/>
-      <c r="K101" s="451"/>
-      <c r="L101" s="451"/>
-      <c r="M101" s="451"/>
-      <c r="N101" s="451"/>
-      <c r="O101" s="451"/>
-      <c r="P101" s="451"/>
-      <c r="Q101" s="451"/>
+      <c r="G101" s="452"/>
+      <c r="H101" s="452"/>
+      <c r="I101" s="452"/>
+      <c r="J101" s="452"/>
+      <c r="K101" s="452"/>
+      <c r="L101" s="452"/>
+      <c r="M101" s="452"/>
+      <c r="N101" s="452"/>
+      <c r="O101" s="452"/>
+      <c r="P101" s="452"/>
+      <c r="Q101" s="452"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="158"/>
-      <c r="B102" s="452" t="s">
+      <c r="B102" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="452"/>
-      <c r="D102" s="453" t="s">
+      <c r="C102" s="453"/>
+      <c r="D102" s="454" t="s">
         <v>195</v>
       </c>
-      <c r="E102" s="453"/>
-      <c r="F102" s="453"/>
-      <c r="G102" s="453"/>
-      <c r="H102" s="396" t="s">
+      <c r="E102" s="454"/>
+      <c r="F102" s="454"/>
+      <c r="G102" s="454"/>
+      <c r="H102" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="I102" s="396"/>
-      <c r="J102" s="396"/>
-      <c r="K102" s="396"/>
-      <c r="L102" s="396"/>
-      <c r="M102" s="396"/>
-      <c r="N102" s="396"/>
-      <c r="O102" s="396"/>
-      <c r="P102" s="396"/>
-      <c r="Q102" s="396"/>
+      <c r="I102" s="397"/>
+      <c r="J102" s="397"/>
+      <c r="K102" s="397"/>
+      <c r="L102" s="397"/>
+      <c r="M102" s="397"/>
+      <c r="N102" s="397"/>
+      <c r="O102" s="397"/>
+      <c r="P102" s="397"/>
+      <c r="Q102" s="397"/>
       <c r="R102" s="213"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="158"/>
-      <c r="B103" s="445" t="s">
+      <c r="B103" s="446" t="s">
         <v>197</v>
       </c>
-      <c r="C103" s="445"/>
-      <c r="D103" s="446" t="s">
+      <c r="C103" s="446"/>
+      <c r="D103" s="447" t="s">
         <v>198</v>
       </c>
-      <c r="E103" s="446"/>
-      <c r="F103" s="446"/>
-      <c r="G103" s="446"/>
-      <c r="H103" s="447" t="s">
+      <c r="E103" s="447"/>
+      <c r="F103" s="447"/>
+      <c r="G103" s="447"/>
+      <c r="H103" s="448" t="s">
         <v>199</v>
       </c>
-      <c r="I103" s="447"/>
-      <c r="J103" s="447"/>
-      <c r="K103" s="447"/>
-      <c r="L103" s="447"/>
-      <c r="M103" s="447"/>
-      <c r="N103" s="447"/>
-      <c r="O103" s="447"/>
-      <c r="P103" s="447"/>
-      <c r="Q103" s="447"/>
+      <c r="I103" s="448"/>
+      <c r="J103" s="448"/>
+      <c r="K103" s="448"/>
+      <c r="L103" s="448"/>
+      <c r="M103" s="448"/>
+      <c r="N103" s="448"/>
+      <c r="O103" s="448"/>
+      <c r="P103" s="448"/>
+      <c r="Q103" s="448"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="158"/>
-      <c r="B104" s="445"/>
-      <c r="C104" s="445"/>
-      <c r="D104" s="446" t="s">
+      <c r="B104" s="446"/>
+      <c r="C104" s="446"/>
+      <c r="D104" s="447" t="s">
         <v>198</v>
       </c>
-      <c r="E104" s="446"/>
-      <c r="F104" s="446"/>
-      <c r="G104" s="446"/>
+      <c r="E104" s="447"/>
+      <c r="F104" s="447"/>
+      <c r="G104" s="447"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="158"/>
-      <c r="B105" s="448" t="s">
+      <c r="B105" s="449" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="448"/>
-      <c r="D105" s="448" t="s">
+      <c r="C105" s="449"/>
+      <c r="D105" s="449" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="448"/>
-      <c r="F105" s="448"/>
-      <c r="G105" s="448"/>
+      <c r="E105" s="449"/>
+      <c r="F105" s="449"/>
+      <c r="G105" s="449"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="158"/>
-      <c r="B106" s="444" t="s">
+      <c r="B106" s="445" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="444"/>
-      <c r="D106" s="444" t="s">
+      <c r="C106" s="445"/>
+      <c r="D106" s="445" t="s">
         <v>202</v>
       </c>
-      <c r="E106" s="444"/>
-      <c r="F106" s="444"/>
-      <c r="G106" s="444"/>
+      <c r="E106" s="445"/>
+      <c r="F106" s="445"/>
+      <c r="G106" s="445"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="158"/>
@@ -23147,7 +23134,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{3052ACB5-6EBE-4136-9BC5-E3B7E24C4355}">
-            <xm:f>AND(#REF!&lt;&gt;"",#REF!=[Quan_ly_DV.xlsm.xlsm]ThietLap!#REF!)</xm:f>
+            <xm:f>AND(#REF!&lt;&gt;"",#REF!='G:\DOC\[Quan_ly_DV.xlsm.xlsm]ThietLap'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23157,7 +23144,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="5" id="{B9ED55F8-8824-4FF2-BBE4-B2EBFCCF7002}">
-            <xm:f>AND($AO35&lt;&gt;"",$AO35&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,$AO35&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND($AO35&lt;&gt;"",$AO35&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,$AO35&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23167,7 +23154,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="6" id="{53D4968B-6021-40AC-AB11-024273BB1CB1}">
-            <xm:f>AND(#REF!&lt;&gt;"",#REF!&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,#REF!&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND(#REF!&lt;&gt;"",#REF!&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,#REF!&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23180,7 +23167,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{95C7AB7C-3FB7-459B-A9D9-A6FCFF75F45C}">
-            <xm:f>AND(#REF!&lt;&gt;"",#REF!=[Quan_ly_DV.xlsm.xlsm]ThietLap!#REF!)</xm:f>
+            <xm:f>AND(#REF!&lt;&gt;"",#REF!='G:\DOC\[Quan_ly_DV.xlsm.xlsm]ThietLap'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23190,7 +23177,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{63454998-9ED3-4020-985B-44594F0F4E33}">
-            <xm:f>AND($AO35&lt;&gt;"",$AO35&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,$AO35&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND($AO35&lt;&gt;"",$AO35&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,$AO35&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23200,7 +23187,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="3" id="{6D68AD9B-5359-47B6-9B2C-2B019FA6F1A4}">
-            <xm:f>AND(#REF!&lt;&gt;"",#REF!&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,#REF!&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND(#REF!&lt;&gt;"",#REF!&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,#REF!&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23213,7 +23200,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{3EA84E1D-A5A8-471E-9A89-06A175F84C48}">
-            <xm:f>AND([Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;&gt;"",[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!=[Quan_ly_DV.xlsm.xlsm]ThietLap!#REF!)</xm:f>
+            <xm:f>AND('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;&gt;"",'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!='G:\DOC\[Quan_ly_DV.xlsm.xlsm]ThietLap'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23223,7 +23210,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="8" id="{CC47526F-32B6-4D57-8525-8D14C1836304}">
-            <xm:f>AND([Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;&gt;"",[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;&gt;"",'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23233,7 +23220,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="9" id="{2646DE56-A1B7-42D7-AB6D-E0414908B017}">
-            <xm:f>AND([Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;&gt;"",[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;&gt;"",'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23246,7 +23233,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="10" id="{560769C1-7E76-4C8A-A88D-CA012AB8B9DE}">
-            <xm:f>AND([Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;&gt;"",[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!=[Quan_ly_DV.xlsm.xlsm]ThietLap!#REF!)</xm:f>
+            <xm:f>AND('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;&gt;"",'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!='G:\DOC\[Quan_ly_DV.xlsm.xlsm]ThietLap'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23256,7 +23243,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="11" id="{D15F3C3E-0D3D-4F16-BB31-111A332E9C66}">
-            <xm:f>AND([Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;&gt;"",[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;&gt;"",'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23266,7 +23253,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="12" id="{F33F2510-8EFC-4D67-B474-342A3D5E5582}">
-            <xm:f>AND([Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;&gt;"",[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&gt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!,[Quan_ly_DV.xlsm.xlsm]DSDV!#REF!&lt;=[Quan_ly_DV.xlsm.xlsm]DK!#REF!)</xm:f>
+            <xm:f>AND('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;&gt;"",'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&gt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!,'G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!&lt;='G:\DOC\[Quan_ly_DV.xlsm.xlsm]DK'!#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23281,7 +23268,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>OFFSET('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!,0,0,COUNTA('G:\DOC\[Quan_ly_DV.xlsm.xlsm]DSDV'!#REF!))</xm:f>
           </x14:formula1>
@@ -23294,11 +23281,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23315,20 +23303,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="457" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="457" t="s">
+      <c r="A2" s="458" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="457" t="s">
+      <c r="B2" s="458" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="458" t="s">
+      <c r="C2" s="459" t="s">
         <v>207</v>
       </c>
       <c r="D2" s="272" t="s">
@@ -23342,12 +23330,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="457"/>
-      <c r="B3" s="457"/>
-      <c r="C3" s="459"/>
+      <c r="A3" s="458"/>
+      <c r="B3" s="458"/>
+      <c r="C3" s="460"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="461" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="221" t="s">
@@ -23356,21 +23344,21 @@
       <c r="C4" s="222"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="461"/>
+      <c r="A5" s="462"/>
       <c r="B5" s="223" t="s">
         <v>211</v>
       </c>
       <c r="C5" s="224"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="462"/>
+      <c r="A6" s="463"/>
       <c r="B6" s="225" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="224"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="454" t="s">
+      <c r="A7" s="455" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="226" t="s">
@@ -23379,14 +23367,14 @@
       <c r="C7" s="227"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="455"/>
+      <c r="A8" s="456"/>
       <c r="B8" s="228" t="s">
         <v>214</v>
       </c>
       <c r="C8" s="229"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="469" t="s">
+      <c r="A9" s="470" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="230" t="s">
@@ -23395,28 +23383,28 @@
       <c r="C9" s="231"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="470"/>
+      <c r="A10" s="471"/>
       <c r="B10" s="232" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="233"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="470"/>
+      <c r="A11" s="471"/>
       <c r="B11" s="232" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="233"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="471"/>
+      <c r="A12" s="472"/>
       <c r="B12" s="234" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="235"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="463" t="s">
+      <c r="A13" s="464" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="236" t="s">
@@ -23425,28 +23413,28 @@
       <c r="C13" s="237"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="464"/>
+      <c r="A14" s="465"/>
       <c r="B14" s="238" t="s">
         <v>220</v>
       </c>
       <c r="C14" s="239"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="464"/>
+      <c r="A15" s="465"/>
       <c r="B15" s="238" t="s">
         <v>221</v>
       </c>
       <c r="C15" s="239"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="465"/>
+      <c r="A16" s="466"/>
       <c r="B16" s="240" t="s">
         <v>222</v>
       </c>
       <c r="C16" s="241"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="472" t="s">
+      <c r="A17" s="473" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="242" t="s">
@@ -23455,35 +23443,35 @@
       <c r="C17" s="243"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="473"/>
+      <c r="A18" s="474"/>
       <c r="B18" s="244" t="s">
         <v>224</v>
       </c>
       <c r="C18" s="245"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="473"/>
+      <c r="A19" s="474"/>
       <c r="B19" s="244" t="s">
         <v>225</v>
       </c>
       <c r="C19" s="245"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="473"/>
+      <c r="A20" s="474"/>
       <c r="B20" s="244" t="s">
         <v>226</v>
       </c>
       <c r="C20" s="246"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="474"/>
+      <c r="A21" s="475"/>
       <c r="B21" s="244" t="s">
         <v>214</v>
       </c>
       <c r="C21" s="246"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="475" t="s">
+      <c r="A22" s="476" t="s">
         <v>227</v>
       </c>
       <c r="B22" s="247" t="s">
@@ -23492,21 +23480,21 @@
       <c r="C22" s="248"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="476"/>
+      <c r="A23" s="477"/>
       <c r="B23" s="249" t="s">
         <v>229</v>
       </c>
       <c r="C23" s="250"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="477"/>
+      <c r="A24" s="478"/>
       <c r="B24" s="251" t="s">
         <v>230</v>
       </c>
       <c r="C24" s="252"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="478" t="s">
+      <c r="A25" s="479" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="253" t="s">
@@ -23515,35 +23503,35 @@
       <c r="C25" s="254"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="479"/>
+      <c r="A26" s="480"/>
       <c r="B26" s="255" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="256"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="479"/>
+      <c r="A27" s="480"/>
       <c r="B27" s="255" t="s">
         <v>232</v>
       </c>
       <c r="C27" s="256"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="479"/>
+      <c r="A28" s="480"/>
       <c r="B28" s="255" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="256"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="479"/>
+      <c r="A29" s="480"/>
       <c r="B29" s="255" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="256"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="479"/>
+      <c r="A30" s="480"/>
       <c r="B30" s="257" t="s">
         <v>235</v>
       </c>
@@ -23553,14 +23541,14 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="480"/>
+      <c r="A31" s="481"/>
       <c r="B31" s="258" t="s">
         <v>236</v>
       </c>
       <c r="C31" s="259"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="481" t="s">
+      <c r="A32" s="482" t="s">
         <v>237</v>
       </c>
       <c r="B32" s="260" t="s">
@@ -23569,35 +23557,35 @@
       <c r="C32" s="261"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="482"/>
+      <c r="A33" s="483"/>
       <c r="B33" s="262" t="s">
         <v>238</v>
       </c>
       <c r="C33" s="263"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="482"/>
+      <c r="A34" s="483"/>
       <c r="B34" s="262" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="263"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="482"/>
+      <c r="A35" s="483"/>
       <c r="B35" s="262" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="263"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="483"/>
+      <c r="A36" s="484"/>
       <c r="B36" s="264" t="s">
         <v>241</v>
       </c>
       <c r="C36" s="265"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="463" t="s">
+      <c r="A37" s="464" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="236" t="s">
@@ -23606,49 +23594,49 @@
       <c r="C37" s="237"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="464"/>
+      <c r="A38" s="465"/>
       <c r="B38" s="238" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="239"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="464"/>
+      <c r="A39" s="465"/>
       <c r="B39" s="238" t="s">
         <v>244</v>
       </c>
       <c r="C39" s="239"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="464"/>
+      <c r="A40" s="465"/>
       <c r="B40" s="238" t="s">
         <v>245</v>
       </c>
       <c r="C40" s="239"/>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="464"/>
+      <c r="A41" s="465"/>
       <c r="B41" s="238" t="s">
         <v>246</v>
       </c>
       <c r="C41" s="239"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="464"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="238" t="s">
         <v>247</v>
       </c>
       <c r="C42" s="239"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="465"/>
+      <c r="A43" s="466"/>
       <c r="B43" s="240" t="s">
         <v>248</v>
       </c>
       <c r="C43" s="241"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="466" t="s">
+      <c r="A44" s="467" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="266" t="s">
@@ -23657,42 +23645,42 @@
       <c r="C44" s="254"/>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="467"/>
+      <c r="A45" s="468"/>
       <c r="B45" s="267" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="256"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="467"/>
+      <c r="A46" s="468"/>
       <c r="B46" s="267" t="s">
         <v>251</v>
       </c>
       <c r="C46" s="256"/>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="467"/>
+      <c r="A47" s="468"/>
       <c r="B47" s="267" t="s">
         <v>252</v>
       </c>
       <c r="C47" s="256"/>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="467"/>
+      <c r="A48" s="468"/>
       <c r="B48" s="267" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="256"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="467"/>
+      <c r="A49" s="468"/>
       <c r="B49" s="267" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="256"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="468"/>
+      <c r="A50" s="469"/>
       <c r="B50" s="268" t="s">
         <v>254</v>
       </c>
@@ -23747,7 +23735,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'G:\DOC\[Quan_ly_DV.xlsm.xlsm]Danh muc Chi bo'!#REF!</xm:f>
           </x14:formula1>
